--- a/TCS_NEWUI_FieldOptions.xlsx
+++ b/TCS_NEWUI_FieldOptions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sumit Rana\Projects\AdIntel- New\Test Cases\Completed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sumit Rana\Projects\AdIntel- New\Test Cases\TC Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6091DF9B-9BBE-47CD-B862-514CA7F7CAD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1DE538C-32F4-4607-9471-E68ABBDA5A8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="815" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="5" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="165">
   <si>
     <t>Test Case Result Modules-Wise</t>
   </si>
@@ -2266,6 +2266,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="39" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="40" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="41" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="39" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="40" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="41" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="39" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="40" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2274,15 +2292,6 @@
     <xf numFmtId="0" fontId="4" fillId="28" borderId="41" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="31" borderId="39" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="31" borderId="40" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="31" borderId="41" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="39" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2292,6 +2301,9 @@
     <xf numFmtId="0" fontId="5" fillId="29" borderId="41" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="39" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="46" fillId="29" borderId="36" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2309,18 +2321,6 @@
     </xf>
     <xf numFmtId="0" fontId="35" fillId="30" borderId="38" xfId="145" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="31" borderId="39" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="39" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="40" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="41" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="154">
@@ -4208,7 +4208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -5221,10 +5221,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G980"/>
+  <dimension ref="A1:G983"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A147" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A154" sqref="A154:XFD154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -5890,10 +5890,10 @@
       </c>
       <c r="D2"/>
       <c r="E2" s="11"/>
-      <c r="F2" s="85" t="s">
+      <c r="F2" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="86"/>
+      <c r="G2" s="90"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="11"/>
@@ -5954,10 +5954,10 @@
       <c r="C6" s="39"/>
       <c r="D6"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="87" t="s">
+      <c r="F6" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="88"/>
+      <c r="G6" s="92"/>
     </row>
     <row r="7" spans="1:7" ht="19.5" customHeight="1" thickBot="1">
       <c r="A7" s="11"/>
@@ -5973,7 +5973,7 @@
         <v>4</v>
       </c>
       <c r="G7" s="22">
-        <f>COUNTIF(G11:G1106,"Pass")</f>
+        <f>COUNTIF(G11:G1109,"Pass")</f>
         <v>17</v>
       </c>
     </row>
@@ -5989,7 +5989,7 @@
         <v>5</v>
       </c>
       <c r="G8" s="22">
-        <f>COUNTIF(G12:G1107,"Fail")</f>
+        <f>COUNTIF(G12:G1110,"Fail")</f>
         <v>0</v>
       </c>
     </row>
@@ -6007,7 +6007,7 @@
         <v>46</v>
       </c>
       <c r="G9" s="22">
-        <f>COUNTIF(G13:G1108,"Blocked")</f>
+        <f>COUNTIF(G13:G1111,"Blocked")</f>
         <v>0</v>
       </c>
     </row>
@@ -6023,7 +6023,7 @@
         <v>45</v>
       </c>
       <c r="G10" s="22">
-        <f>COUNTIF(G14:G1109,"Not Executed")</f>
+        <f>COUNTIF(G14:G1112,"Not Executed")</f>
         <v>1</v>
       </c>
     </row>
@@ -6088,32 +6088,32 @@
       <c r="G15" s="20"/>
     </row>
     <row r="16" spans="1:7" s="52" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A16" s="89" t="s">
+      <c r="A16" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="89"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="89"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
     </row>
     <row r="17" spans="1:7" s="52" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A17" s="90" t="s">
+      <c r="A17" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="90"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="94"/>
     </row>
     <row r="18" spans="1:7" s="52" customFormat="1">
       <c r="A18" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="91" t="s">
+      <c r="B18" s="88" t="s">
         <v>63</v>
       </c>
       <c r="C18" s="80"/>
@@ -6131,14 +6131,14 @@
       <c r="A19" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="76" t="s">
+      <c r="B19" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="78"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="84"/>
     </row>
     <row r="20" spans="1:7" s="52" customFormat="1">
       <c r="A20" s="57" t="s">
@@ -6184,18 +6184,18 @@
       <c r="A22" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="82"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="84"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="87"/>
     </row>
     <row r="23" spans="1:7" s="52" customFormat="1">
       <c r="A23" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="91" t="s">
+      <c r="B23" s="88" t="s">
         <v>71</v>
       </c>
       <c r="C23" s="80"/>
@@ -6213,14 +6213,14 @@
       <c r="A24" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="76" t="s">
+      <c r="B24" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="78"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="84"/>
     </row>
     <row r="25" spans="1:7" s="52" customFormat="1">
       <c r="A25" s="57" t="s">
@@ -6283,18 +6283,18 @@
       <c r="A28" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="82"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="83"/>
-      <c r="F28" s="83"/>
-      <c r="G28" s="84"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="87"/>
     </row>
     <row r="29" spans="1:7" s="52" customFormat="1">
       <c r="A29" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="91" t="s">
+      <c r="B29" s="88" t="s">
         <v>79</v>
       </c>
       <c r="C29" s="80"/>
@@ -6312,14 +6312,14 @@
       <c r="A30" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="76" t="s">
+      <c r="B30" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="77"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="78"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="83"/>
+      <c r="G30" s="84"/>
     </row>
     <row r="31" spans="1:7" s="52" customFormat="1">
       <c r="A31" s="57" t="s">
@@ -6399,18 +6399,18 @@
       <c r="A35" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="82"/>
-      <c r="C35" s="83"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="83"/>
-      <c r="F35" s="83"/>
-      <c r="G35" s="84"/>
+      <c r="B35" s="85"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="86"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="86"/>
+      <c r="G35" s="87"/>
     </row>
     <row r="36" spans="1:7" s="52" customFormat="1">
       <c r="A36" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="B36" s="91" t="s">
+      <c r="B36" s="88" t="s">
         <v>80</v>
       </c>
       <c r="C36" s="80"/>
@@ -6428,14 +6428,14 @@
       <c r="A37" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="76" t="s">
+      <c r="B37" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="77"/>
-      <c r="D37" s="77"/>
-      <c r="E37" s="77"/>
-      <c r="F37" s="77"/>
-      <c r="G37" s="78"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="84"/>
     </row>
     <row r="38" spans="1:7" s="52" customFormat="1">
       <c r="A38" s="57" t="s">
@@ -6515,18 +6515,18 @@
       <c r="A42" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="82"/>
-      <c r="C42" s="83"/>
-      <c r="D42" s="83"/>
-      <c r="E42" s="83"/>
-      <c r="F42" s="83"/>
-      <c r="G42" s="84"/>
+      <c r="B42" s="85"/>
+      <c r="C42" s="86"/>
+      <c r="D42" s="86"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="86"/>
+      <c r="G42" s="87"/>
     </row>
     <row r="43" spans="1:7" s="52" customFormat="1">
       <c r="A43" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="91" t="s">
+      <c r="B43" s="88" t="s">
         <v>56</v>
       </c>
       <c r="C43" s="80"/>
@@ -6544,14 +6544,14 @@
       <c r="A44" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B44" s="76" t="s">
+      <c r="B44" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="C44" s="77"/>
-      <c r="D44" s="77"/>
-      <c r="E44" s="77"/>
-      <c r="F44" s="77"/>
-      <c r="G44" s="78"/>
+      <c r="C44" s="83"/>
+      <c r="D44" s="83"/>
+      <c r="E44" s="83"/>
+      <c r="F44" s="83"/>
+      <c r="G44" s="84"/>
     </row>
     <row r="45" spans="1:7" s="52" customFormat="1">
       <c r="A45" s="57" t="s">
@@ -6631,18 +6631,18 @@
       <c r="A49" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B49" s="82"/>
-      <c r="C49" s="83"/>
-      <c r="D49" s="83"/>
-      <c r="E49" s="83"/>
-      <c r="F49" s="83"/>
-      <c r="G49" s="84"/>
+      <c r="B49" s="85"/>
+      <c r="C49" s="86"/>
+      <c r="D49" s="86"/>
+      <c r="E49" s="86"/>
+      <c r="F49" s="86"/>
+      <c r="G49" s="87"/>
     </row>
     <row r="50" spans="1:7" s="52" customFormat="1">
       <c r="A50" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="B50" s="91" t="s">
+      <c r="B50" s="88" t="s">
         <v>57</v>
       </c>
       <c r="C50" s="80"/>
@@ -6660,14 +6660,14 @@
       <c r="A51" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B51" s="76" t="s">
+      <c r="B51" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="C51" s="77"/>
-      <c r="D51" s="77"/>
-      <c r="E51" s="77"/>
-      <c r="F51" s="77"/>
-      <c r="G51" s="78"/>
+      <c r="C51" s="83"/>
+      <c r="D51" s="83"/>
+      <c r="E51" s="83"/>
+      <c r="F51" s="83"/>
+      <c r="G51" s="84"/>
     </row>
     <row r="52" spans="1:7" s="52" customFormat="1">
       <c r="A52" s="57" t="s">
@@ -6764,18 +6764,18 @@
       <c r="A57" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B57" s="82"/>
-      <c r="C57" s="83"/>
-      <c r="D57" s="83"/>
-      <c r="E57" s="83"/>
-      <c r="F57" s="83"/>
-      <c r="G57" s="84"/>
+      <c r="B57" s="85"/>
+      <c r="C57" s="86"/>
+      <c r="D57" s="86"/>
+      <c r="E57" s="86"/>
+      <c r="F57" s="86"/>
+      <c r="G57" s="87"/>
     </row>
     <row r="58" spans="1:7" s="52" customFormat="1">
       <c r="A58" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="B58" s="91" t="s">
+      <c r="B58" s="88" t="s">
         <v>99</v>
       </c>
       <c r="C58" s="80"/>
@@ -6793,14 +6793,14 @@
       <c r="A59" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B59" s="76" t="s">
+      <c r="B59" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="C59" s="77"/>
-      <c r="D59" s="77"/>
-      <c r="E59" s="77"/>
-      <c r="F59" s="77"/>
-      <c r="G59" s="78"/>
+      <c r="C59" s="83"/>
+      <c r="D59" s="83"/>
+      <c r="E59" s="83"/>
+      <c r="F59" s="83"/>
+      <c r="G59" s="84"/>
     </row>
     <row r="60" spans="1:7" s="52" customFormat="1">
       <c r="A60" s="57" t="s">
@@ -6878,18 +6878,18 @@
       <c r="A64" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B64" s="82"/>
-      <c r="C64" s="83"/>
-      <c r="D64" s="83"/>
-      <c r="E64" s="83"/>
-      <c r="F64" s="83"/>
-      <c r="G64" s="84"/>
+      <c r="B64" s="85"/>
+      <c r="C64" s="86"/>
+      <c r="D64" s="86"/>
+      <c r="E64" s="86"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="87"/>
     </row>
     <row r="65" spans="1:7" s="52" customFormat="1">
       <c r="A65" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="B65" s="91" t="s">
+      <c r="B65" s="88" t="s">
         <v>100</v>
       </c>
       <c r="C65" s="80"/>
@@ -6907,14 +6907,14 @@
       <c r="A66" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B66" s="76" t="s">
+      <c r="B66" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="C66" s="77"/>
-      <c r="D66" s="77"/>
-      <c r="E66" s="77"/>
-      <c r="F66" s="77"/>
-      <c r="G66" s="78"/>
+      <c r="C66" s="83"/>
+      <c r="D66" s="83"/>
+      <c r="E66" s="83"/>
+      <c r="F66" s="83"/>
+      <c r="G66" s="84"/>
     </row>
     <row r="67" spans="1:7" s="52" customFormat="1">
       <c r="A67" s="57" t="s">
@@ -6994,18 +6994,18 @@
       <c r="A71" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B71" s="82"/>
-      <c r="C71" s="83"/>
-      <c r="D71" s="83"/>
-      <c r="E71" s="83"/>
-      <c r="F71" s="83"/>
-      <c r="G71" s="84"/>
+      <c r="B71" s="85"/>
+      <c r="C71" s="86"/>
+      <c r="D71" s="86"/>
+      <c r="E71" s="86"/>
+      <c r="F71" s="86"/>
+      <c r="G71" s="87"/>
     </row>
     <row r="72" spans="1:7" s="52" customFormat="1">
       <c r="A72" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="B72" s="91" t="s">
+      <c r="B72" s="88" t="s">
         <v>94</v>
       </c>
       <c r="C72" s="80"/>
@@ -7023,14 +7023,14 @@
       <c r="A73" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B73" s="76" t="s">
+      <c r="B73" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="C73" s="77"/>
-      <c r="D73" s="77"/>
-      <c r="E73" s="77"/>
-      <c r="F73" s="77"/>
-      <c r="G73" s="78"/>
+      <c r="C73" s="83"/>
+      <c r="D73" s="83"/>
+      <c r="E73" s="83"/>
+      <c r="F73" s="83"/>
+      <c r="G73" s="84"/>
     </row>
     <row r="74" spans="1:7" s="52" customFormat="1">
       <c r="A74" s="57" t="s">
@@ -7127,18 +7127,18 @@
       <c r="A79" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B79" s="82"/>
-      <c r="C79" s="83"/>
-      <c r="D79" s="83"/>
-      <c r="E79" s="83"/>
-      <c r="F79" s="83"/>
-      <c r="G79" s="84"/>
+      <c r="B79" s="85"/>
+      <c r="C79" s="86"/>
+      <c r="D79" s="86"/>
+      <c r="E79" s="86"/>
+      <c r="F79" s="86"/>
+      <c r="G79" s="87"/>
     </row>
     <row r="80" spans="1:7" s="52" customFormat="1">
       <c r="A80" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="B80" s="91" t="s">
+      <c r="B80" s="88" t="s">
         <v>108</v>
       </c>
       <c r="C80" s="80"/>
@@ -7156,14 +7156,14 @@
       <c r="A81" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B81" s="76" t="s">
+      <c r="B81" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="C81" s="77"/>
-      <c r="D81" s="77"/>
-      <c r="E81" s="77"/>
-      <c r="F81" s="77"/>
-      <c r="G81" s="78"/>
+      <c r="C81" s="83"/>
+      <c r="D81" s="83"/>
+      <c r="E81" s="83"/>
+      <c r="F81" s="83"/>
+      <c r="G81" s="84"/>
     </row>
     <row r="82" spans="1:7" s="52" customFormat="1">
       <c r="A82" s="57" t="s">
@@ -7277,18 +7277,18 @@
       <c r="A88" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B88" s="82"/>
-      <c r="C88" s="83"/>
-      <c r="D88" s="83"/>
-      <c r="E88" s="83"/>
-      <c r="F88" s="83"/>
-      <c r="G88" s="84"/>
+      <c r="B88" s="85"/>
+      <c r="C88" s="86"/>
+      <c r="D88" s="86"/>
+      <c r="E88" s="86"/>
+      <c r="F88" s="86"/>
+      <c r="G88" s="87"/>
     </row>
     <row r="89" spans="1:7" s="52" customFormat="1">
       <c r="A89" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="B89" s="91" t="s">
+      <c r="B89" s="88" t="s">
         <v>113</v>
       </c>
       <c r="C89" s="80"/>
@@ -7306,14 +7306,14 @@
       <c r="A90" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B90" s="76" t="s">
+      <c r="B90" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="C90" s="77"/>
-      <c r="D90" s="77"/>
-      <c r="E90" s="77"/>
-      <c r="F90" s="77"/>
-      <c r="G90" s="78"/>
+      <c r="C90" s="83"/>
+      <c r="D90" s="83"/>
+      <c r="E90" s="83"/>
+      <c r="F90" s="83"/>
+      <c r="G90" s="84"/>
     </row>
     <row r="91" spans="1:7" s="52" customFormat="1">
       <c r="A91" s="57" t="s">
@@ -7410,18 +7410,18 @@
       <c r="A96" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B96" s="82"/>
-      <c r="C96" s="83"/>
-      <c r="D96" s="83"/>
-      <c r="E96" s="83"/>
-      <c r="F96" s="83"/>
-      <c r="G96" s="84"/>
+      <c r="B96" s="85"/>
+      <c r="C96" s="86"/>
+      <c r="D96" s="86"/>
+      <c r="E96" s="86"/>
+      <c r="F96" s="86"/>
+      <c r="G96" s="87"/>
     </row>
     <row r="97" spans="1:7" s="52" customFormat="1">
       <c r="A97" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="B97" s="91" t="s">
+      <c r="B97" s="88" t="s">
         <v>58</v>
       </c>
       <c r="C97" s="80"/>
@@ -7439,14 +7439,14 @@
       <c r="A98" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B98" s="76" t="s">
+      <c r="B98" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="C98" s="77"/>
-      <c r="D98" s="77"/>
-      <c r="E98" s="77"/>
-      <c r="F98" s="77"/>
-      <c r="G98" s="78"/>
+      <c r="C98" s="83"/>
+      <c r="D98" s="83"/>
+      <c r="E98" s="83"/>
+      <c r="F98" s="83"/>
+      <c r="G98" s="84"/>
     </row>
     <row r="99" spans="1:7" s="52" customFormat="1">
       <c r="A99" s="57" t="s">
@@ -7545,12 +7545,12 @@
       <c r="A104" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B104" s="82"/>
-      <c r="C104" s="83"/>
-      <c r="D104" s="83"/>
-      <c r="E104" s="83"/>
-      <c r="F104" s="83"/>
-      <c r="G104" s="84"/>
+      <c r="B104" s="85"/>
+      <c r="C104" s="86"/>
+      <c r="D104" s="86"/>
+      <c r="E104" s="86"/>
+      <c r="F104" s="86"/>
+      <c r="G104" s="87"/>
     </row>
     <row r="105" spans="1:7" s="52" customFormat="1" ht="42" customHeight="1">
       <c r="A105" s="53" t="s">
@@ -7574,14 +7574,14 @@
       <c r="A106" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B106" s="76" t="s">
+      <c r="B106" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="C106" s="77"/>
-      <c r="D106" s="77"/>
-      <c r="E106" s="77"/>
-      <c r="F106" s="77"/>
-      <c r="G106" s="78"/>
+      <c r="C106" s="83"/>
+      <c r="D106" s="83"/>
+      <c r="E106" s="83"/>
+      <c r="F106" s="83"/>
+      <c r="G106" s="84"/>
     </row>
     <row r="107" spans="1:7" s="52" customFormat="1">
       <c r="A107" s="57" t="s">
@@ -7695,12 +7695,12 @@
       <c r="A113" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B113" s="82"/>
-      <c r="C113" s="83"/>
-      <c r="D113" s="83"/>
-      <c r="E113" s="83"/>
-      <c r="F113" s="83"/>
-      <c r="G113" s="84"/>
+      <c r="B113" s="85"/>
+      <c r="C113" s="86"/>
+      <c r="D113" s="86"/>
+      <c r="E113" s="86"/>
+      <c r="F113" s="86"/>
+      <c r="G113" s="87"/>
     </row>
     <row r="114" spans="1:7" s="52" customFormat="1" ht="42" customHeight="1">
       <c r="A114" s="53" t="s">
@@ -7724,14 +7724,14 @@
       <c r="A115" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B115" s="76" t="s">
+      <c r="B115" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="C115" s="77"/>
-      <c r="D115" s="77"/>
-      <c r="E115" s="77"/>
-      <c r="F115" s="77"/>
-      <c r="G115" s="78"/>
+      <c r="C115" s="83"/>
+      <c r="D115" s="83"/>
+      <c r="E115" s="83"/>
+      <c r="F115" s="83"/>
+      <c r="G115" s="84"/>
     </row>
     <row r="116" spans="1:7" s="52" customFormat="1">
       <c r="A116" s="57" t="s">
@@ -7847,12 +7847,12 @@
       <c r="A122" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B122" s="82"/>
-      <c r="C122" s="83"/>
-      <c r="D122" s="83"/>
-      <c r="E122" s="83"/>
-      <c r="F122" s="83"/>
-      <c r="G122" s="84"/>
+      <c r="B122" s="85"/>
+      <c r="C122" s="86"/>
+      <c r="D122" s="86"/>
+      <c r="E122" s="86"/>
+      <c r="F122" s="86"/>
+      <c r="G122" s="87"/>
     </row>
     <row r="123" spans="1:7" s="52" customFormat="1" ht="42" customHeight="1">
       <c r="A123" s="53" t="s">
@@ -7876,14 +7876,14 @@
       <c r="A124" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B124" s="76" t="s">
+      <c r="B124" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="C124" s="77"/>
-      <c r="D124" s="77"/>
-      <c r="E124" s="77"/>
-      <c r="F124" s="77"/>
-      <c r="G124" s="78"/>
+      <c r="C124" s="83"/>
+      <c r="D124" s="83"/>
+      <c r="E124" s="83"/>
+      <c r="F124" s="83"/>
+      <c r="G124" s="84"/>
     </row>
     <row r="125" spans="1:7" s="52" customFormat="1">
       <c r="A125" s="57" t="s">
@@ -7995,86 +7995,80 @@
       </c>
       <c r="G130" s="62"/>
     </row>
-    <row r="131" spans="1:7" s="52" customFormat="1" ht="42" customHeight="1">
-      <c r="A131" s="53" t="s">
+    <row r="131" spans="1:7" s="64" customFormat="1">
+      <c r="A131" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="B131" s="85"/>
+      <c r="C131" s="86"/>
+      <c r="D131" s="86"/>
+      <c r="E131" s="86"/>
+      <c r="F131" s="86"/>
+      <c r="G131" s="87"/>
+    </row>
+    <row r="132" spans="1:7" s="52" customFormat="1" ht="42" customHeight="1">
+      <c r="A132" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="B131" s="79" t="s">
+      <c r="B132" s="79" t="s">
         <v>134</v>
       </c>
-      <c r="C131" s="80"/>
-      <c r="D131" s="80"/>
-      <c r="E131" s="81"/>
-      <c r="F131" s="54" t="s">
+      <c r="C132" s="80"/>
+      <c r="D132" s="80"/>
+      <c r="E132" s="81"/>
+      <c r="F132" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="G131" s="55" t="str">
-        <f>IF(COUNTIF(F134:F135,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F134:F135,"Fail")&gt;0,"Fail",IF(COUNTIF(F134:F135,"")=0,"Pass","Not Executed")))</f>
+      <c r="G132" s="55" t="str">
+        <f>IF(COUNTIF(F135:F136,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F135:F136,"Fail")&gt;0,"Fail",IF(COUNTIF(F135:F136,"")=0,"Pass","Not Executed")))</f>
         <v>Pass</v>
       </c>
     </row>
-    <row r="132" spans="1:7" s="52" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A132" s="56" t="s">
+    <row r="133" spans="1:7" s="52" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A133" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B132" s="76" t="s">
+      <c r="B133" s="82" t="s">
         <v>144</v>
       </c>
-      <c r="C132" s="77"/>
-      <c r="D132" s="77"/>
-      <c r="E132" s="77"/>
-      <c r="F132" s="77"/>
-      <c r="G132" s="78"/>
-    </row>
-    <row r="133" spans="1:7" s="52" customFormat="1">
-      <c r="A133" s="57" t="s">
+      <c r="C133" s="83"/>
+      <c r="D133" s="83"/>
+      <c r="E133" s="83"/>
+      <c r="F133" s="83"/>
+      <c r="G133" s="84"/>
+    </row>
+    <row r="134" spans="1:7" s="52" customFormat="1">
+      <c r="A134" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="B133" s="57" t="s">
+      <c r="B134" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="C133" s="57" t="s">
+      <c r="C134" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="D133" s="57" t="s">
+      <c r="D134" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="E133" s="57" t="s">
+      <c r="E134" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="F133" s="57" t="s">
+      <c r="F134" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="G133" s="57" t="s">
+      <c r="G134" s="57" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="134" spans="1:7" s="52" customFormat="1" ht="165">
-      <c r="A134" s="58">
+    <row r="135" spans="1:7" s="52" customFormat="1" ht="165">
+      <c r="A135" s="58">
         <v>1</v>
       </c>
-      <c r="B134" s="59" t="s">
+      <c r="B135" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="C134" s="60" t="s">
+      <c r="C135" s="60" t="s">
         <v>140</v>
-      </c>
-      <c r="D134" s="60"/>
-      <c r="E134" s="60"/>
-      <c r="F134" s="61" t="s">
-        <v>4</v>
-      </c>
-      <c r="G134" s="62"/>
-    </row>
-    <row r="135" spans="1:7" s="52" customFormat="1" ht="15.75">
-      <c r="A135" s="58">
-        <v>2</v>
-      </c>
-      <c r="B135" s="59" t="s">
-        <v>145</v>
-      </c>
-      <c r="C135" s="60" t="s">
-        <v>146</v>
       </c>
       <c r="D135" s="60"/>
       <c r="E135" s="60"/>
@@ -8083,248 +8077,232 @@
       </c>
       <c r="G135" s="62"/>
     </row>
-    <row r="136" spans="1:7" s="52" customFormat="1" ht="42" customHeight="1">
-      <c r="A136" s="53" t="s">
+    <row r="136" spans="1:7" s="52" customFormat="1" ht="15.75">
+      <c r="A136" s="58">
+        <v>2</v>
+      </c>
+      <c r="B136" s="59" t="s">
+        <v>145</v>
+      </c>
+      <c r="C136" s="60" t="s">
+        <v>146</v>
+      </c>
+      <c r="D136" s="60"/>
+      <c r="E136" s="60"/>
+      <c r="F136" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="G136" s="62"/>
+    </row>
+    <row r="137" spans="1:7" s="64" customFormat="1">
+      <c r="A137" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="B137" s="85"/>
+      <c r="C137" s="86"/>
+      <c r="D137" s="86"/>
+      <c r="E137" s="86"/>
+      <c r="F137" s="86"/>
+      <c r="G137" s="87"/>
+    </row>
+    <row r="138" spans="1:7" s="52" customFormat="1" ht="42" customHeight="1">
+      <c r="A138" s="53" t="s">
         <v>147</v>
       </c>
-      <c r="B136" s="79" t="s">
+      <c r="B138" s="79" t="s">
         <v>148</v>
       </c>
-      <c r="C136" s="80"/>
-      <c r="D136" s="80"/>
-      <c r="E136" s="81"/>
-      <c r="F136" s="54" t="s">
+      <c r="C138" s="80"/>
+      <c r="D138" s="80"/>
+      <c r="E138" s="81"/>
+      <c r="F138" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="G136" s="55" t="str">
-        <f>IF(COUNTIF(F139:F141,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F139:F141,"Fail")&gt;0,"Fail",IF(COUNTIF(F139:F141,"")=0,"Pass","Not Executed")))</f>
+      <c r="G138" s="55" t="str">
+        <f>IF(COUNTIF(F141:F143,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F141:F143,"Fail")&gt;0,"Fail",IF(COUNTIF(F141:F143,"")=0,"Pass","Not Executed")))</f>
         <v>Pass</v>
       </c>
     </row>
-    <row r="137" spans="1:7" s="52" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A137" s="56" t="s">
+    <row r="139" spans="1:7" s="52" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A139" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B137" s="92" t="s">
+      <c r="B139" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="C137" s="93"/>
-      <c r="D137" s="93"/>
-      <c r="E137" s="93"/>
-      <c r="F137" s="93"/>
-      <c r="G137" s="94"/>
-    </row>
-    <row r="138" spans="1:7" s="52" customFormat="1">
-      <c r="A138" s="57" t="s">
+      <c r="C139" s="77"/>
+      <c r="D139" s="77"/>
+      <c r="E139" s="77"/>
+      <c r="F139" s="77"/>
+      <c r="G139" s="78"/>
+    </row>
+    <row r="140" spans="1:7" s="52" customFormat="1">
+      <c r="A140" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="B138" s="57" t="s">
+      <c r="B140" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="C138" s="57" t="s">
+      <c r="C140" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="D138" s="57" t="s">
+      <c r="D140" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="E138" s="57" t="s">
+      <c r="E140" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="F138" s="57" t="s">
+      <c r="F140" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="G138" s="57" t="s">
+      <c r="G140" s="57" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="139" spans="1:7" s="52" customFormat="1" ht="165">
-      <c r="A139" s="58">
+    <row r="141" spans="1:7" s="52" customFormat="1" ht="165">
+      <c r="A141" s="58">
         <v>1</v>
       </c>
-      <c r="B139" s="59" t="s">
+      <c r="B141" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="C139" s="60" t="s">
+      <c r="C141" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="D139" s="60"/>
-      <c r="E139" s="60"/>
-      <c r="F139" s="61" t="s">
-        <v>4</v>
-      </c>
-      <c r="G139" s="62"/>
-    </row>
-    <row r="140" spans="1:7" s="52" customFormat="1" ht="15.75">
-      <c r="A140" s="58">
-        <v>2</v>
-      </c>
-      <c r="B140" s="59" t="s">
-        <v>150</v>
-      </c>
-      <c r="C140" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="D140" s="60"/>
-      <c r="E140" s="60"/>
-      <c r="F140" s="61" t="s">
-        <v>4</v>
-      </c>
-      <c r="G140" s="62"/>
-    </row>
-    <row r="141" spans="1:7" s="52" customFormat="1" ht="30">
-      <c r="A141" s="58">
-        <v>3</v>
-      </c>
-      <c r="B141" s="59" t="s">
-        <v>153</v>
-      </c>
-      <c r="C141" s="60" t="s">
-        <v>154</v>
-      </c>
-      <c r="D141" s="60" t="s">
-        <v>152</v>
-      </c>
+      <c r="D141" s="60"/>
       <c r="E141" s="60"/>
       <c r="F141" s="61" t="s">
         <v>4</v>
       </c>
       <c r="G141" s="62"/>
     </row>
-    <row r="142" spans="1:7" s="52" customFormat="1" ht="42" customHeight="1">
-      <c r="A142" s="53" t="s">
+    <row r="142" spans="1:7" s="52" customFormat="1" ht="15.75">
+      <c r="A142" s="58">
+        <v>2</v>
+      </c>
+      <c r="B142" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="C142" s="60" t="s">
+        <v>151</v>
+      </c>
+      <c r="D142" s="60"/>
+      <c r="E142" s="60"/>
+      <c r="F142" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="G142" s="62"/>
+    </row>
+    <row r="143" spans="1:7" s="52" customFormat="1" ht="30">
+      <c r="A143" s="58">
+        <v>3</v>
+      </c>
+      <c r="B143" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="C143" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="D143" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="E143" s="60"/>
+      <c r="F143" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="G143" s="62"/>
+    </row>
+    <row r="144" spans="1:7" s="64" customFormat="1">
+      <c r="A144" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="B144" s="85"/>
+      <c r="C144" s="86"/>
+      <c r="D144" s="86"/>
+      <c r="E144" s="86"/>
+      <c r="F144" s="86"/>
+      <c r="G144" s="87"/>
+    </row>
+    <row r="145" spans="1:7" s="52" customFormat="1" ht="42" customHeight="1">
+      <c r="A145" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="B142" s="79" t="s">
+      <c r="B145" s="79" t="s">
         <v>129</v>
       </c>
-      <c r="C142" s="80"/>
-      <c r="D142" s="80"/>
-      <c r="E142" s="81"/>
-      <c r="F142" s="54" t="s">
+      <c r="C145" s="80"/>
+      <c r="D145" s="80"/>
+      <c r="E145" s="81"/>
+      <c r="F145" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="G142" s="55" t="str">
-        <f>IF(COUNTIF(F145:F150,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F145:F150,"Fail")&gt;0,"Fail",IF(COUNTIF(F145:F150,"")=0,"Pass","Not Executed")))</f>
+      <c r="G145" s="55" t="str">
+        <f>IF(COUNTIF(F148:F153,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F148:F153,"Fail")&gt;0,"Fail",IF(COUNTIF(F148:F153,"")=0,"Pass","Not Executed")))</f>
         <v>Pass</v>
       </c>
     </row>
-    <row r="143" spans="1:7" s="52" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A143" s="56" t="s">
+    <row r="146" spans="1:7" s="52" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A146" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B143" s="92" t="s">
+      <c r="B146" s="76" t="s">
         <v>156</v>
       </c>
-      <c r="C143" s="93"/>
-      <c r="D143" s="93"/>
-      <c r="E143" s="93"/>
-      <c r="F143" s="93"/>
-      <c r="G143" s="94"/>
-    </row>
-    <row r="144" spans="1:7" s="52" customFormat="1">
-      <c r="A144" s="57" t="s">
+      <c r="C146" s="77"/>
+      <c r="D146" s="77"/>
+      <c r="E146" s="77"/>
+      <c r="F146" s="77"/>
+      <c r="G146" s="78"/>
+    </row>
+    <row r="147" spans="1:7" s="52" customFormat="1">
+      <c r="A147" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="B144" s="57" t="s">
+      <c r="B147" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="C144" s="57" t="s">
+      <c r="C147" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="D144" s="57" t="s">
+      <c r="D147" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="E144" s="57" t="s">
+      <c r="E147" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="F144" s="57" t="s">
+      <c r="F147" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="G144" s="57" t="s">
+      <c r="G147" s="57" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="145" spans="1:7" s="52" customFormat="1" ht="165">
-      <c r="A145" s="58">
+    <row r="148" spans="1:7" s="52" customFormat="1" ht="165">
+      <c r="A148" s="58">
         <v>1</v>
       </c>
-      <c r="B145" s="59" t="s">
+      <c r="B148" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="C145" s="60" t="s">
+      <c r="C148" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="D145" s="60"/>
-      <c r="E145" s="60"/>
-      <c r="F145" s="61" t="s">
-        <v>4</v>
-      </c>
-      <c r="G145" s="62"/>
-    </row>
-    <row r="146" spans="1:7" s="52" customFormat="1" ht="60">
-      <c r="A146" s="58">
-        <v>2</v>
-      </c>
-      <c r="B146" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="C146" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="D146" s="60"/>
-      <c r="E146" s="60"/>
-      <c r="F146" s="61" t="s">
-        <v>4</v>
-      </c>
-      <c r="G146" s="62"/>
-    </row>
-    <row r="147" spans="1:7" s="52" customFormat="1" ht="50.25" customHeight="1">
-      <c r="A147" s="58">
-        <v>3</v>
-      </c>
-      <c r="B147" s="59" t="s">
-        <v>81</v>
-      </c>
-      <c r="C147" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="D147" s="60" t="s">
-        <v>119</v>
-      </c>
-      <c r="E147" s="60"/>
-      <c r="F147" s="61" t="s">
-        <v>4</v>
-      </c>
-      <c r="G147" s="62"/>
-    </row>
-    <row r="148" spans="1:7" s="52" customFormat="1" ht="50.25" customHeight="1">
-      <c r="A148" s="58">
-        <v>4</v>
-      </c>
-      <c r="B148" s="59" t="s">
-        <v>84</v>
-      </c>
-      <c r="C148" s="60" t="s">
-        <v>158</v>
-      </c>
-      <c r="D148" s="60" t="s">
-        <v>157</v>
-      </c>
+      <c r="D148" s="60"/>
       <c r="E148" s="60"/>
       <c r="F148" s="61" t="s">
         <v>4</v>
       </c>
       <c r="G148" s="62"/>
     </row>
-    <row r="149" spans="1:7" s="52" customFormat="1" ht="30">
+    <row r="149" spans="1:7" s="52" customFormat="1" ht="60">
       <c r="A149" s="58">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B149" s="59" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="C149" s="60" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="D149" s="60"/>
       <c r="E149" s="60"/>
@@ -8333,58 +8311,88 @@
       </c>
       <c r="G149" s="62"/>
     </row>
-    <row r="150" spans="1:7" s="52" customFormat="1" ht="15.75">
+    <row r="150" spans="1:7" s="52" customFormat="1" ht="50.25" customHeight="1">
       <c r="A150" s="58">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B150" s="59" t="s">
-        <v>160</v>
+        <v>81</v>
       </c>
       <c r="C150" s="60" t="s">
-        <v>161</v>
-      </c>
-      <c r="D150" s="60"/>
+        <v>82</v>
+      </c>
+      <c r="D150" s="60" t="s">
+        <v>119</v>
+      </c>
       <c r="E150" s="60"/>
       <c r="F150" s="61" t="s">
         <v>4</v>
       </c>
       <c r="G150" s="62"/>
     </row>
-    <row r="151" spans="1:7">
-      <c r="A151"/>
-      <c r="B151"/>
-      <c r="C151"/>
-      <c r="D151"/>
-      <c r="E151"/>
-      <c r="F151"/>
-      <c r="G151"/>
-    </row>
-    <row r="152" spans="1:7">
-      <c r="A152"/>
-      <c r="B152"/>
-      <c r="C152"/>
-      <c r="D152"/>
-      <c r="E152"/>
-      <c r="F152"/>
-      <c r="G152"/>
-    </row>
-    <row r="153" spans="1:7">
-      <c r="A153"/>
-      <c r="B153"/>
-      <c r="C153"/>
-      <c r="D153"/>
-      <c r="E153"/>
-      <c r="F153"/>
-      <c r="G153"/>
-    </row>
-    <row r="154" spans="1:7">
-      <c r="A154"/>
-      <c r="B154"/>
-      <c r="C154"/>
-      <c r="D154"/>
-      <c r="E154"/>
-      <c r="F154"/>
-      <c r="G154"/>
+    <row r="151" spans="1:7" s="52" customFormat="1" ht="50.25" customHeight="1">
+      <c r="A151" s="58">
+        <v>4</v>
+      </c>
+      <c r="B151" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C151" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="D151" s="60" t="s">
+        <v>157</v>
+      </c>
+      <c r="E151" s="60"/>
+      <c r="F151" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="G151" s="62"/>
+    </row>
+    <row r="152" spans="1:7" s="52" customFormat="1" ht="30">
+      <c r="A152" s="58">
+        <v>5</v>
+      </c>
+      <c r="B152" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="C152" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="D152" s="60"/>
+      <c r="E152" s="60"/>
+      <c r="F152" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="G152" s="62"/>
+    </row>
+    <row r="153" spans="1:7" s="52" customFormat="1" ht="15.75">
+      <c r="A153" s="58">
+        <v>6</v>
+      </c>
+      <c r="B153" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="C153" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="D153" s="60"/>
+      <c r="E153" s="60"/>
+      <c r="F153" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="G153" s="62"/>
+    </row>
+    <row r="154" spans="1:7" s="64" customFormat="1">
+      <c r="A154" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="B154" s="85"/>
+      <c r="C154" s="86"/>
+      <c r="D154" s="86"/>
+      <c r="E154" s="86"/>
+      <c r="F154" s="86"/>
+      <c r="G154" s="87"/>
     </row>
     <row r="155" spans="1:7">
       <c r="A155"/>
@@ -8611,7 +8619,7 @@
       <c r="F179"/>
       <c r="G179"/>
     </row>
-    <row r="180" spans="1:7" ht="30.95" customHeight="1">
+    <row r="180" spans="1:7">
       <c r="A180"/>
       <c r="B180"/>
       <c r="C180"/>
@@ -8638,7 +8646,7 @@
       <c r="F182"/>
       <c r="G182"/>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" ht="30.95" customHeight="1">
       <c r="A183"/>
       <c r="B183"/>
       <c r="C183"/>
@@ -11158,31 +11166,34 @@
       <c r="F462"/>
       <c r="G462"/>
     </row>
-    <row r="463" spans="1:7" ht="15.75">
-      <c r="A463" s="11"/>
-      <c r="B463" s="13"/>
-      <c r="C463" s="12"/>
-      <c r="D463" s="15"/>
-      <c r="E463" s="16"/>
-      <c r="F463" s="21"/>
-    </row>
-    <row r="464" spans="1:7" ht="15.75">
-      <c r="A464" s="11"/>
-      <c r="B464" s="13"/>
-      <c r="C464" s="12"/>
-      <c r="D464" s="15"/>
-      <c r="E464" s="16"/>
-      <c r="F464" s="21"/>
-    </row>
-    <row r="465" spans="1:6" ht="15.75">
-      <c r="A465" s="11"/>
-      <c r="B465" s="13"/>
-      <c r="C465" s="12"/>
-      <c r="D465" s="15"/>
-      <c r="E465" s="16"/>
-      <c r="F465" s="21"/>
-    </row>
-    <row r="466" spans="1:6" ht="15.75">
+    <row r="463" spans="1:7">
+      <c r="A463"/>
+      <c r="B463"/>
+      <c r="C463"/>
+      <c r="D463"/>
+      <c r="E463"/>
+      <c r="F463"/>
+      <c r="G463"/>
+    </row>
+    <row r="464" spans="1:7">
+      <c r="A464"/>
+      <c r="B464"/>
+      <c r="C464"/>
+      <c r="D464"/>
+      <c r="E464"/>
+      <c r="F464"/>
+      <c r="G464"/>
+    </row>
+    <row r="465" spans="1:7">
+      <c r="A465"/>
+      <c r="B465"/>
+      <c r="C465"/>
+      <c r="D465"/>
+      <c r="E465"/>
+      <c r="F465"/>
+      <c r="G465"/>
+    </row>
+    <row r="466" spans="1:7" ht="15.75">
       <c r="A466" s="11"/>
       <c r="B466" s="13"/>
       <c r="C466" s="12"/>
@@ -11190,7 +11201,7 @@
       <c r="E466" s="16"/>
       <c r="F466" s="21"/>
     </row>
-    <row r="467" spans="1:6" ht="15.75">
+    <row r="467" spans="1:7" ht="15.75">
       <c r="A467" s="11"/>
       <c r="B467" s="13"/>
       <c r="C467" s="12"/>
@@ -11198,7 +11209,7 @@
       <c r="E467" s="16"/>
       <c r="F467" s="21"/>
     </row>
-    <row r="468" spans="1:6" ht="15.75">
+    <row r="468" spans="1:7" ht="15.75">
       <c r="A468" s="11"/>
       <c r="B468" s="13"/>
       <c r="C468" s="12"/>
@@ -11206,7 +11217,7 @@
       <c r="E468" s="16"/>
       <c r="F468" s="21"/>
     </row>
-    <row r="469" spans="1:6" ht="15.75">
+    <row r="469" spans="1:7" ht="15.75">
       <c r="A469" s="11"/>
       <c r="B469" s="13"/>
       <c r="C469" s="12"/>
@@ -11214,7 +11225,7 @@
       <c r="E469" s="16"/>
       <c r="F469" s="21"/>
     </row>
-    <row r="470" spans="1:6" ht="15.75">
+    <row r="470" spans="1:7" ht="15.75">
       <c r="A470" s="11"/>
       <c r="B470" s="13"/>
       <c r="C470" s="12"/>
@@ -11222,7 +11233,7 @@
       <c r="E470" s="16"/>
       <c r="F470" s="21"/>
     </row>
-    <row r="471" spans="1:6" ht="15.75">
+    <row r="471" spans="1:7" ht="15.75">
       <c r="A471" s="11"/>
       <c r="B471" s="13"/>
       <c r="C471" s="12"/>
@@ -11230,7 +11241,7 @@
       <c r="E471" s="16"/>
       <c r="F471" s="21"/>
     </row>
-    <row r="472" spans="1:6" ht="15.75">
+    <row r="472" spans="1:7" ht="15.75">
       <c r="A472" s="11"/>
       <c r="B472" s="13"/>
       <c r="C472" s="12"/>
@@ -11238,7 +11249,7 @@
       <c r="E472" s="16"/>
       <c r="F472" s="21"/>
     </row>
-    <row r="473" spans="1:6" ht="15.75">
+    <row r="473" spans="1:7" ht="15.75">
       <c r="A473" s="11"/>
       <c r="B473" s="13"/>
       <c r="C473" s="12"/>
@@ -11246,7 +11257,7 @@
       <c r="E473" s="16"/>
       <c r="F473" s="21"/>
     </row>
-    <row r="474" spans="1:6" ht="15.75">
+    <row r="474" spans="1:7" ht="15.75">
       <c r="A474" s="11"/>
       <c r="B474" s="13"/>
       <c r="C474" s="12"/>
@@ -11254,7 +11265,7 @@
       <c r="E474" s="16"/>
       <c r="F474" s="21"/>
     </row>
-    <row r="475" spans="1:6" ht="15.75">
+    <row r="475" spans="1:7" ht="15.75">
       <c r="A475" s="11"/>
       <c r="B475" s="13"/>
       <c r="C475" s="12"/>
@@ -11262,7 +11273,7 @@
       <c r="E475" s="16"/>
       <c r="F475" s="21"/>
     </row>
-    <row r="476" spans="1:6" ht="15.75">
+    <row r="476" spans="1:7" ht="15.75">
       <c r="A476" s="11"/>
       <c r="B476" s="13"/>
       <c r="C476" s="12"/>
@@ -11270,7 +11281,7 @@
       <c r="E476" s="16"/>
       <c r="F476" s="21"/>
     </row>
-    <row r="477" spans="1:6" ht="15.75">
+    <row r="477" spans="1:7" ht="15.75">
       <c r="A477" s="11"/>
       <c r="B477" s="13"/>
       <c r="C477" s="12"/>
@@ -11278,7 +11289,7 @@
       <c r="E477" s="16"/>
       <c r="F477" s="21"/>
     </row>
-    <row r="478" spans="1:6" ht="15.75">
+    <row r="478" spans="1:7" ht="15.75">
       <c r="A478" s="11"/>
       <c r="B478" s="13"/>
       <c r="C478" s="12"/>
@@ -11286,7 +11297,7 @@
       <c r="E478" s="16"/>
       <c r="F478" s="21"/>
     </row>
-    <row r="479" spans="1:6" ht="15.75">
+    <row r="479" spans="1:7" ht="15.75">
       <c r="A479" s="11"/>
       <c r="B479" s="13"/>
       <c r="C479" s="12"/>
@@ -11294,7 +11305,7 @@
       <c r="E479" s="16"/>
       <c r="F479" s="21"/>
     </row>
-    <row r="480" spans="1:6" ht="15.75">
+    <row r="480" spans="1:7" ht="15.75">
       <c r="A480" s="11"/>
       <c r="B480" s="13"/>
       <c r="C480" s="12"/>
@@ -15302,46 +15313,33 @@
       <c r="E980" s="16"/>
       <c r="F980" s="21"/>
     </row>
+    <row r="981" spans="1:6" ht="15.75">
+      <c r="A981" s="11"/>
+      <c r="B981" s="13"/>
+      <c r="C981" s="12"/>
+      <c r="D981" s="15"/>
+      <c r="E981" s="16"/>
+      <c r="F981" s="21"/>
+    </row>
+    <row r="982" spans="1:6" ht="15.75">
+      <c r="A982" s="11"/>
+      <c r="B982" s="13"/>
+      <c r="C982" s="12"/>
+      <c r="D982" s="15"/>
+      <c r="E982" s="16"/>
+      <c r="F982" s="21"/>
+    </row>
+    <row r="983" spans="1:6" ht="15.75">
+      <c r="A983" s="11"/>
+      <c r="B983" s="13"/>
+      <c r="C983" s="12"/>
+      <c r="D983" s="15"/>
+      <c r="E983" s="16"/>
+      <c r="F983" s="21"/>
+    </row>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="B137:G137"/>
-    <mergeCell ref="B142:E142"/>
-    <mergeCell ref="B143:G143"/>
-    <mergeCell ref="B123:E123"/>
-    <mergeCell ref="B124:G124"/>
-    <mergeCell ref="B131:E131"/>
-    <mergeCell ref="B132:G132"/>
-    <mergeCell ref="B136:E136"/>
-    <mergeCell ref="B114:E114"/>
-    <mergeCell ref="B115:G115"/>
-    <mergeCell ref="B122:G122"/>
-    <mergeCell ref="B98:G98"/>
-    <mergeCell ref="B104:G104"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B73:G73"/>
-    <mergeCell ref="B79:G79"/>
-    <mergeCell ref="B96:G96"/>
-    <mergeCell ref="B97:E97"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="B81:G81"/>
-    <mergeCell ref="B88:G88"/>
-    <mergeCell ref="B89:E89"/>
-    <mergeCell ref="B90:G90"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="B64:G64"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="B66:G66"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B44:G44"/>
+  <mergeCells count="58">
+    <mergeCell ref="B154:G154"/>
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="B105:E105"/>
     <mergeCell ref="B106:G106"/>
@@ -15358,9 +15356,50 @@
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="B30:G30"/>
     <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="B96:G96"/>
+    <mergeCell ref="B97:E97"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="B81:G81"/>
+    <mergeCell ref="B88:G88"/>
+    <mergeCell ref="B89:E89"/>
+    <mergeCell ref="B90:G90"/>
+    <mergeCell ref="B114:E114"/>
+    <mergeCell ref="B115:G115"/>
+    <mergeCell ref="B122:G122"/>
+    <mergeCell ref="B98:G98"/>
+    <mergeCell ref="B104:G104"/>
+    <mergeCell ref="B139:G139"/>
+    <mergeCell ref="B145:E145"/>
+    <mergeCell ref="B146:G146"/>
+    <mergeCell ref="B123:E123"/>
+    <mergeCell ref="B124:G124"/>
+    <mergeCell ref="B132:E132"/>
+    <mergeCell ref="B133:G133"/>
+    <mergeCell ref="B138:E138"/>
+    <mergeCell ref="B131:G131"/>
+    <mergeCell ref="B137:G137"/>
+    <mergeCell ref="B144:G144"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" showErrorMessage="1" promptTitle="Valid values include:" prompt="_x000a_" sqref="F463:F465 F39:F41 F470:F476 F689:F691 F679:F684 F481:F490 F495:F498 F503:F508 F513:F521 F526:F535 F540:F550 F555:F565 F581:F587 F609:F611 F570:F576 F592:F598 F603:F604 F616:F622 F627:F633 F649:F651 F638:F644 F656:F659 F664:F666 F671:F674 F26:F27 F61:F63 F21 F46:F48 F32:F34 F53:F56 F68:F70 F75:F78 F83:F87 F92:F95 F100:F103 F108:F112 F117:F121 F126:F130 F134:F135 F139:F141 F145:F150" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" showErrorMessage="1" promptTitle="Valid values include:" prompt="_x000a_" sqref="F466:F468 F39:F41 F473:F479 F692:F694 F682:F687 F484:F493 F498:F501 F506:F511 F516:F524 F529:F538 F543:F553 F558:F568 F584:F590 F612:F614 F573:F579 F595:F601 F606:F607 F619:F625 F630:F636 F652:F654 F641:F647 F659:F662 F667:F669 F674:F677 F26:F27 F61:F63 F21 F46:F48 F32:F34 F53:F56 F68:F70 F75:F78 F83:F87 F92:F95 F100:F103 F108:F112 F117:F121 F148:F153 F126:F130 F135:F136 F141:F143" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Pass, Fail, Blocked"</formula1>
     </dataValidation>
   </dataValidations>

--- a/TCS_NEWUI_FieldOptions.xlsx
+++ b/TCS_NEWUI_FieldOptions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sumit Rana\Projects\AdIntel- New\Test Cases\TC Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1DE538C-32F4-4607-9471-E68ABBDA5A8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B9E0D1-6982-4D8B-AD79-F9E073A4B79A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="815" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="815" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="5" r:id="rId1"/>
@@ -2265,6 +2265,54 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="147" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="39" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="40" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="41" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="39" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="40" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="41" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="39" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="40" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="41" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="29" borderId="36" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="29" borderId="37" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="42" xfId="136" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="43" xfId="136" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" xfId="145" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="38" xfId="145" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="39" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="39" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2273,54 +2321,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="41" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="31" borderId="39" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="31" borderId="40" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="31" borderId="41" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="39" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="40" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="41" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="39" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="40" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="41" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="31" borderId="39" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="29" borderId="36" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="29" borderId="37" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="42" xfId="136" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="43" xfId="136" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" xfId="145" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="38" xfId="145" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="154">
@@ -4366,8 +4366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G98"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5223,8 +5223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G983"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A154" sqref="A154:XFD154"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -5890,10 +5890,10 @@
       </c>
       <c r="D2"/>
       <c r="E2" s="11"/>
-      <c r="F2" s="89" t="s">
+      <c r="F2" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="90"/>
+      <c r="G2" s="86"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="11"/>
@@ -5954,10 +5954,10 @@
       <c r="C6" s="39"/>
       <c r="D6"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="91" t="s">
+      <c r="F6" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="92"/>
+      <c r="G6" s="88"/>
     </row>
     <row r="7" spans="1:7" ht="19.5" customHeight="1" thickBot="1">
       <c r="A7" s="11"/>
@@ -6088,37 +6088,37 @@
       <c r="G15" s="20"/>
     </row>
     <row r="16" spans="1:7" s="52" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A16" s="93" t="s">
+      <c r="A16" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="93"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
     </row>
     <row r="17" spans="1:7" s="52" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A17" s="94" t="s">
+      <c r="A17" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="94"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="94"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
     </row>
     <row r="18" spans="1:7" s="52" customFormat="1">
       <c r="A18" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="88" t="s">
+      <c r="B18" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="81"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="84"/>
       <c r="F18" s="54" t="s">
         <v>28</v>
       </c>
@@ -6131,14 +6131,14 @@
       <c r="A19" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="82" t="s">
+      <c r="B19" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="84"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="81"/>
     </row>
     <row r="20" spans="1:7" s="52" customFormat="1">
       <c r="A20" s="57" t="s">
@@ -6184,23 +6184,23 @@
       <c r="A22" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="85"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="87"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="78"/>
     </row>
     <row r="23" spans="1:7" s="52" customFormat="1">
       <c r="A23" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="88" t="s">
+      <c r="B23" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="81"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="84"/>
       <c r="F23" s="54" t="s">
         <v>28</v>
       </c>
@@ -6213,14 +6213,14 @@
       <c r="A24" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="82" t="s">
+      <c r="B24" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="83"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="84"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="81"/>
     </row>
     <row r="25" spans="1:7" s="52" customFormat="1">
       <c r="A25" s="57" t="s">
@@ -6283,23 +6283,23 @@
       <c r="A28" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="85"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="87"/>
+      <c r="B28" s="76"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="78"/>
     </row>
     <row r="29" spans="1:7" s="52" customFormat="1">
       <c r="A29" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="88" t="s">
+      <c r="B29" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="80"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="81"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="84"/>
       <c r="F29" s="54" t="s">
         <v>28</v>
       </c>
@@ -6312,14 +6312,14 @@
       <c r="A30" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="82" t="s">
+      <c r="B30" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="83"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="83"/>
-      <c r="F30" s="83"/>
-      <c r="G30" s="84"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="81"/>
     </row>
     <row r="31" spans="1:7" s="52" customFormat="1">
       <c r="A31" s="57" t="s">
@@ -6399,23 +6399,23 @@
       <c r="A35" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="85"/>
-      <c r="C35" s="86"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="86"/>
-      <c r="F35" s="86"/>
-      <c r="G35" s="87"/>
+      <c r="B35" s="76"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="78"/>
     </row>
     <row r="36" spans="1:7" s="52" customFormat="1">
       <c r="A36" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="B36" s="88" t="s">
+      <c r="B36" s="91" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="80"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="81"/>
+      <c r="C36" s="83"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="84"/>
       <c r="F36" s="54" t="s">
         <v>28</v>
       </c>
@@ -6428,14 +6428,14 @@
       <c r="A37" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="82" t="s">
+      <c r="B37" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="83"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="83"/>
-      <c r="F37" s="83"/>
-      <c r="G37" s="84"/>
+      <c r="C37" s="80"/>
+      <c r="D37" s="80"/>
+      <c r="E37" s="80"/>
+      <c r="F37" s="80"/>
+      <c r="G37" s="81"/>
     </row>
     <row r="38" spans="1:7" s="52" customFormat="1">
       <c r="A38" s="57" t="s">
@@ -6515,23 +6515,23 @@
       <c r="A42" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="85"/>
-      <c r="C42" s="86"/>
-      <c r="D42" s="86"/>
-      <c r="E42" s="86"/>
-      <c r="F42" s="86"/>
-      <c r="G42" s="87"/>
+      <c r="B42" s="76"/>
+      <c r="C42" s="77"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="77"/>
+      <c r="F42" s="77"/>
+      <c r="G42" s="78"/>
     </row>
     <row r="43" spans="1:7" s="52" customFormat="1">
       <c r="A43" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="88" t="s">
+      <c r="B43" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="80"/>
-      <c r="D43" s="80"/>
-      <c r="E43" s="81"/>
+      <c r="C43" s="83"/>
+      <c r="D43" s="83"/>
+      <c r="E43" s="84"/>
       <c r="F43" s="54" t="s">
         <v>28</v>
       </c>
@@ -6544,14 +6544,14 @@
       <c r="A44" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B44" s="82" t="s">
+      <c r="B44" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="C44" s="83"/>
-      <c r="D44" s="83"/>
-      <c r="E44" s="83"/>
-      <c r="F44" s="83"/>
-      <c r="G44" s="84"/>
+      <c r="C44" s="80"/>
+      <c r="D44" s="80"/>
+      <c r="E44" s="80"/>
+      <c r="F44" s="80"/>
+      <c r="G44" s="81"/>
     </row>
     <row r="45" spans="1:7" s="52" customFormat="1">
       <c r="A45" s="57" t="s">
@@ -6631,23 +6631,23 @@
       <c r="A49" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B49" s="85"/>
-      <c r="C49" s="86"/>
-      <c r="D49" s="86"/>
-      <c r="E49" s="86"/>
-      <c r="F49" s="86"/>
-      <c r="G49" s="87"/>
+      <c r="B49" s="76"/>
+      <c r="C49" s="77"/>
+      <c r="D49" s="77"/>
+      <c r="E49" s="77"/>
+      <c r="F49" s="77"/>
+      <c r="G49" s="78"/>
     </row>
     <row r="50" spans="1:7" s="52" customFormat="1">
       <c r="A50" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="B50" s="88" t="s">
+      <c r="B50" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="C50" s="80"/>
-      <c r="D50" s="80"/>
-      <c r="E50" s="81"/>
+      <c r="C50" s="83"/>
+      <c r="D50" s="83"/>
+      <c r="E50" s="84"/>
       <c r="F50" s="54" t="s">
         <v>28</v>
       </c>
@@ -6660,14 +6660,14 @@
       <c r="A51" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B51" s="82" t="s">
+      <c r="B51" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="C51" s="83"/>
-      <c r="D51" s="83"/>
-      <c r="E51" s="83"/>
-      <c r="F51" s="83"/>
-      <c r="G51" s="84"/>
+      <c r="C51" s="80"/>
+      <c r="D51" s="80"/>
+      <c r="E51" s="80"/>
+      <c r="F51" s="80"/>
+      <c r="G51" s="81"/>
     </row>
     <row r="52" spans="1:7" s="52" customFormat="1">
       <c r="A52" s="57" t="s">
@@ -6764,23 +6764,23 @@
       <c r="A57" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B57" s="85"/>
-      <c r="C57" s="86"/>
-      <c r="D57" s="86"/>
-      <c r="E57" s="86"/>
-      <c r="F57" s="86"/>
-      <c r="G57" s="87"/>
+      <c r="B57" s="76"/>
+      <c r="C57" s="77"/>
+      <c r="D57" s="77"/>
+      <c r="E57" s="77"/>
+      <c r="F57" s="77"/>
+      <c r="G57" s="78"/>
     </row>
     <row r="58" spans="1:7" s="52" customFormat="1">
       <c r="A58" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="B58" s="88" t="s">
+      <c r="B58" s="91" t="s">
         <v>99</v>
       </c>
-      <c r="C58" s="80"/>
-      <c r="D58" s="80"/>
-      <c r="E58" s="81"/>
+      <c r="C58" s="83"/>
+      <c r="D58" s="83"/>
+      <c r="E58" s="84"/>
       <c r="F58" s="54" t="s">
         <v>28</v>
       </c>
@@ -6793,14 +6793,14 @@
       <c r="A59" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B59" s="82" t="s">
+      <c r="B59" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="C59" s="83"/>
-      <c r="D59" s="83"/>
-      <c r="E59" s="83"/>
-      <c r="F59" s="83"/>
-      <c r="G59" s="84"/>
+      <c r="C59" s="80"/>
+      <c r="D59" s="80"/>
+      <c r="E59" s="80"/>
+      <c r="F59" s="80"/>
+      <c r="G59" s="81"/>
     </row>
     <row r="60" spans="1:7" s="52" customFormat="1">
       <c r="A60" s="57" t="s">
@@ -6878,23 +6878,23 @@
       <c r="A64" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B64" s="85"/>
-      <c r="C64" s="86"/>
-      <c r="D64" s="86"/>
-      <c r="E64" s="86"/>
-      <c r="F64" s="86"/>
-      <c r="G64" s="87"/>
+      <c r="B64" s="76"/>
+      <c r="C64" s="77"/>
+      <c r="D64" s="77"/>
+      <c r="E64" s="77"/>
+      <c r="F64" s="77"/>
+      <c r="G64" s="78"/>
     </row>
     <row r="65" spans="1:7" s="52" customFormat="1">
       <c r="A65" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="B65" s="88" t="s">
+      <c r="B65" s="91" t="s">
         <v>100</v>
       </c>
-      <c r="C65" s="80"/>
-      <c r="D65" s="80"/>
-      <c r="E65" s="81"/>
+      <c r="C65" s="83"/>
+      <c r="D65" s="83"/>
+      <c r="E65" s="84"/>
       <c r="F65" s="54" t="s">
         <v>28</v>
       </c>
@@ -6907,14 +6907,14 @@
       <c r="A66" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B66" s="82" t="s">
+      <c r="B66" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="C66" s="83"/>
-      <c r="D66" s="83"/>
-      <c r="E66" s="83"/>
-      <c r="F66" s="83"/>
-      <c r="G66" s="84"/>
+      <c r="C66" s="80"/>
+      <c r="D66" s="80"/>
+      <c r="E66" s="80"/>
+      <c r="F66" s="80"/>
+      <c r="G66" s="81"/>
     </row>
     <row r="67" spans="1:7" s="52" customFormat="1">
       <c r="A67" s="57" t="s">
@@ -6994,23 +6994,23 @@
       <c r="A71" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B71" s="85"/>
-      <c r="C71" s="86"/>
-      <c r="D71" s="86"/>
-      <c r="E71" s="86"/>
-      <c r="F71" s="86"/>
-      <c r="G71" s="87"/>
+      <c r="B71" s="76"/>
+      <c r="C71" s="77"/>
+      <c r="D71" s="77"/>
+      <c r="E71" s="77"/>
+      <c r="F71" s="77"/>
+      <c r="G71" s="78"/>
     </row>
     <row r="72" spans="1:7" s="52" customFormat="1">
       <c r="A72" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="B72" s="88" t="s">
+      <c r="B72" s="91" t="s">
         <v>94</v>
       </c>
-      <c r="C72" s="80"/>
-      <c r="D72" s="80"/>
-      <c r="E72" s="81"/>
+      <c r="C72" s="83"/>
+      <c r="D72" s="83"/>
+      <c r="E72" s="84"/>
       <c r="F72" s="54" t="s">
         <v>28</v>
       </c>
@@ -7023,14 +7023,14 @@
       <c r="A73" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B73" s="82" t="s">
+      <c r="B73" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="C73" s="83"/>
-      <c r="D73" s="83"/>
-      <c r="E73" s="83"/>
-      <c r="F73" s="83"/>
-      <c r="G73" s="84"/>
+      <c r="C73" s="80"/>
+      <c r="D73" s="80"/>
+      <c r="E73" s="80"/>
+      <c r="F73" s="80"/>
+      <c r="G73" s="81"/>
     </row>
     <row r="74" spans="1:7" s="52" customFormat="1">
       <c r="A74" s="57" t="s">
@@ -7127,23 +7127,23 @@
       <c r="A79" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B79" s="85"/>
-      <c r="C79" s="86"/>
-      <c r="D79" s="86"/>
-      <c r="E79" s="86"/>
-      <c r="F79" s="86"/>
-      <c r="G79" s="87"/>
+      <c r="B79" s="76"/>
+      <c r="C79" s="77"/>
+      <c r="D79" s="77"/>
+      <c r="E79" s="77"/>
+      <c r="F79" s="77"/>
+      <c r="G79" s="78"/>
     </row>
     <row r="80" spans="1:7" s="52" customFormat="1">
       <c r="A80" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="B80" s="88" t="s">
+      <c r="B80" s="91" t="s">
         <v>108</v>
       </c>
-      <c r="C80" s="80"/>
-      <c r="D80" s="80"/>
-      <c r="E80" s="81"/>
+      <c r="C80" s="83"/>
+      <c r="D80" s="83"/>
+      <c r="E80" s="84"/>
       <c r="F80" s="54" t="s">
         <v>28</v>
       </c>
@@ -7156,14 +7156,14 @@
       <c r="A81" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B81" s="82" t="s">
+      <c r="B81" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="C81" s="83"/>
-      <c r="D81" s="83"/>
-      <c r="E81" s="83"/>
-      <c r="F81" s="83"/>
-      <c r="G81" s="84"/>
+      <c r="C81" s="80"/>
+      <c r="D81" s="80"/>
+      <c r="E81" s="80"/>
+      <c r="F81" s="80"/>
+      <c r="G81" s="81"/>
     </row>
     <row r="82" spans="1:7" s="52" customFormat="1">
       <c r="A82" s="57" t="s">
@@ -7277,23 +7277,23 @@
       <c r="A88" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B88" s="85"/>
-      <c r="C88" s="86"/>
-      <c r="D88" s="86"/>
-      <c r="E88" s="86"/>
-      <c r="F88" s="86"/>
-      <c r="G88" s="87"/>
+      <c r="B88" s="76"/>
+      <c r="C88" s="77"/>
+      <c r="D88" s="77"/>
+      <c r="E88" s="77"/>
+      <c r="F88" s="77"/>
+      <c r="G88" s="78"/>
     </row>
     <row r="89" spans="1:7" s="52" customFormat="1">
       <c r="A89" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="B89" s="88" t="s">
+      <c r="B89" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="C89" s="80"/>
-      <c r="D89" s="80"/>
-      <c r="E89" s="81"/>
+      <c r="C89" s="83"/>
+      <c r="D89" s="83"/>
+      <c r="E89" s="84"/>
       <c r="F89" s="54" t="s">
         <v>28</v>
       </c>
@@ -7306,14 +7306,14 @@
       <c r="A90" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B90" s="82" t="s">
+      <c r="B90" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="C90" s="83"/>
-      <c r="D90" s="83"/>
-      <c r="E90" s="83"/>
-      <c r="F90" s="83"/>
-      <c r="G90" s="84"/>
+      <c r="C90" s="80"/>
+      <c r="D90" s="80"/>
+      <c r="E90" s="80"/>
+      <c r="F90" s="80"/>
+      <c r="G90" s="81"/>
     </row>
     <row r="91" spans="1:7" s="52" customFormat="1">
       <c r="A91" s="57" t="s">
@@ -7410,23 +7410,23 @@
       <c r="A96" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B96" s="85"/>
-      <c r="C96" s="86"/>
-      <c r="D96" s="86"/>
-      <c r="E96" s="86"/>
-      <c r="F96" s="86"/>
-      <c r="G96" s="87"/>
+      <c r="B96" s="76"/>
+      <c r="C96" s="77"/>
+      <c r="D96" s="77"/>
+      <c r="E96" s="77"/>
+      <c r="F96" s="77"/>
+      <c r="G96" s="78"/>
     </row>
     <row r="97" spans="1:7" s="52" customFormat="1">
       <c r="A97" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="B97" s="88" t="s">
+      <c r="B97" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="C97" s="80"/>
-      <c r="D97" s="80"/>
-      <c r="E97" s="81"/>
+      <c r="C97" s="83"/>
+      <c r="D97" s="83"/>
+      <c r="E97" s="84"/>
       <c r="F97" s="54" t="s">
         <v>28</v>
       </c>
@@ -7439,14 +7439,14 @@
       <c r="A98" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B98" s="82" t="s">
+      <c r="B98" s="79" t="s">
         <v>118</v>
       </c>
-      <c r="C98" s="83"/>
-      <c r="D98" s="83"/>
-      <c r="E98" s="83"/>
-      <c r="F98" s="83"/>
-      <c r="G98" s="84"/>
+      <c r="C98" s="80"/>
+      <c r="D98" s="80"/>
+      <c r="E98" s="80"/>
+      <c r="F98" s="80"/>
+      <c r="G98" s="81"/>
     </row>
     <row r="99" spans="1:7" s="52" customFormat="1">
       <c r="A99" s="57" t="s">
@@ -7545,23 +7545,23 @@
       <c r="A104" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B104" s="85"/>
-      <c r="C104" s="86"/>
-      <c r="D104" s="86"/>
-      <c r="E104" s="86"/>
-      <c r="F104" s="86"/>
-      <c r="G104" s="87"/>
+      <c r="B104" s="76"/>
+      <c r="C104" s="77"/>
+      <c r="D104" s="77"/>
+      <c r="E104" s="77"/>
+      <c r="F104" s="77"/>
+      <c r="G104" s="78"/>
     </row>
     <row r="105" spans="1:7" s="52" customFormat="1" ht="42" customHeight="1">
       <c r="A105" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="B105" s="79" t="s">
+      <c r="B105" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="C105" s="80"/>
-      <c r="D105" s="80"/>
-      <c r="E105" s="81"/>
+      <c r="C105" s="83"/>
+      <c r="D105" s="83"/>
+      <c r="E105" s="84"/>
       <c r="F105" s="54" t="s">
         <v>28</v>
       </c>
@@ -7574,14 +7574,14 @@
       <c r="A106" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B106" s="82" t="s">
+      <c r="B106" s="79" t="s">
         <v>118</v>
       </c>
-      <c r="C106" s="83"/>
-      <c r="D106" s="83"/>
-      <c r="E106" s="83"/>
-      <c r="F106" s="83"/>
-      <c r="G106" s="84"/>
+      <c r="C106" s="80"/>
+      <c r="D106" s="80"/>
+      <c r="E106" s="80"/>
+      <c r="F106" s="80"/>
+      <c r="G106" s="81"/>
     </row>
     <row r="107" spans="1:7" s="52" customFormat="1">
       <c r="A107" s="57" t="s">
@@ -7695,23 +7695,23 @@
       <c r="A113" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B113" s="85"/>
-      <c r="C113" s="86"/>
-      <c r="D113" s="86"/>
-      <c r="E113" s="86"/>
-      <c r="F113" s="86"/>
-      <c r="G113" s="87"/>
+      <c r="B113" s="76"/>
+      <c r="C113" s="77"/>
+      <c r="D113" s="77"/>
+      <c r="E113" s="77"/>
+      <c r="F113" s="77"/>
+      <c r="G113" s="78"/>
     </row>
     <row r="114" spans="1:7" s="52" customFormat="1" ht="42" customHeight="1">
       <c r="A114" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="B114" s="79" t="s">
+      <c r="B114" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="C114" s="80"/>
-      <c r="D114" s="80"/>
-      <c r="E114" s="81"/>
+      <c r="C114" s="83"/>
+      <c r="D114" s="83"/>
+      <c r="E114" s="84"/>
       <c r="F114" s="54" t="s">
         <v>28</v>
       </c>
@@ -7724,14 +7724,14 @@
       <c r="A115" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B115" s="82" t="s">
+      <c r="B115" s="79" t="s">
         <v>118</v>
       </c>
-      <c r="C115" s="83"/>
-      <c r="D115" s="83"/>
-      <c r="E115" s="83"/>
-      <c r="F115" s="83"/>
-      <c r="G115" s="84"/>
+      <c r="C115" s="80"/>
+      <c r="D115" s="80"/>
+      <c r="E115" s="80"/>
+      <c r="F115" s="80"/>
+      <c r="G115" s="81"/>
     </row>
     <row r="116" spans="1:7" s="52" customFormat="1">
       <c r="A116" s="57" t="s">
@@ -7847,23 +7847,23 @@
       <c r="A122" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B122" s="85"/>
-      <c r="C122" s="86"/>
-      <c r="D122" s="86"/>
-      <c r="E122" s="86"/>
-      <c r="F122" s="86"/>
-      <c r="G122" s="87"/>
+      <c r="B122" s="76"/>
+      <c r="C122" s="77"/>
+      <c r="D122" s="77"/>
+      <c r="E122" s="77"/>
+      <c r="F122" s="77"/>
+      <c r="G122" s="78"/>
     </row>
     <row r="123" spans="1:7" s="52" customFormat="1" ht="42" customHeight="1">
       <c r="A123" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="B123" s="79" t="s">
+      <c r="B123" s="82" t="s">
         <v>135</v>
       </c>
-      <c r="C123" s="80"/>
-      <c r="D123" s="80"/>
-      <c r="E123" s="81"/>
+      <c r="C123" s="83"/>
+      <c r="D123" s="83"/>
+      <c r="E123" s="84"/>
       <c r="F123" s="54" t="s">
         <v>28</v>
       </c>
@@ -7876,14 +7876,14 @@
       <c r="A124" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B124" s="82" t="s">
+      <c r="B124" s="79" t="s">
         <v>118</v>
       </c>
-      <c r="C124" s="83"/>
-      <c r="D124" s="83"/>
-      <c r="E124" s="83"/>
-      <c r="F124" s="83"/>
-      <c r="G124" s="84"/>
+      <c r="C124" s="80"/>
+      <c r="D124" s="80"/>
+      <c r="E124" s="80"/>
+      <c r="F124" s="80"/>
+      <c r="G124" s="81"/>
     </row>
     <row r="125" spans="1:7" s="52" customFormat="1">
       <c r="A125" s="57" t="s">
@@ -7999,23 +7999,23 @@
       <c r="A131" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B131" s="85"/>
-      <c r="C131" s="86"/>
-      <c r="D131" s="86"/>
-      <c r="E131" s="86"/>
-      <c r="F131" s="86"/>
-      <c r="G131" s="87"/>
+      <c r="B131" s="76"/>
+      <c r="C131" s="77"/>
+      <c r="D131" s="77"/>
+      <c r="E131" s="77"/>
+      <c r="F131" s="77"/>
+      <c r="G131" s="78"/>
     </row>
     <row r="132" spans="1:7" s="52" customFormat="1" ht="42" customHeight="1">
       <c r="A132" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="B132" s="79" t="s">
+      <c r="B132" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="C132" s="80"/>
-      <c r="D132" s="80"/>
-      <c r="E132" s="81"/>
+      <c r="C132" s="83"/>
+      <c r="D132" s="83"/>
+      <c r="E132" s="84"/>
       <c r="F132" s="54" t="s">
         <v>28</v>
       </c>
@@ -8028,14 +8028,14 @@
       <c r="A133" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B133" s="82" t="s">
+      <c r="B133" s="79" t="s">
         <v>144</v>
       </c>
-      <c r="C133" s="83"/>
-      <c r="D133" s="83"/>
-      <c r="E133" s="83"/>
-      <c r="F133" s="83"/>
-      <c r="G133" s="84"/>
+      <c r="C133" s="80"/>
+      <c r="D133" s="80"/>
+      <c r="E133" s="80"/>
+      <c r="F133" s="80"/>
+      <c r="G133" s="81"/>
     </row>
     <row r="134" spans="1:7" s="52" customFormat="1">
       <c r="A134" s="57" t="s">
@@ -8098,23 +8098,23 @@
       <c r="A137" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B137" s="85"/>
-      <c r="C137" s="86"/>
-      <c r="D137" s="86"/>
-      <c r="E137" s="86"/>
-      <c r="F137" s="86"/>
-      <c r="G137" s="87"/>
+      <c r="B137" s="76"/>
+      <c r="C137" s="77"/>
+      <c r="D137" s="77"/>
+      <c r="E137" s="77"/>
+      <c r="F137" s="77"/>
+      <c r="G137" s="78"/>
     </row>
     <row r="138" spans="1:7" s="52" customFormat="1" ht="42" customHeight="1">
       <c r="A138" s="53" t="s">
         <v>147</v>
       </c>
-      <c r="B138" s="79" t="s">
+      <c r="B138" s="82" t="s">
         <v>148</v>
       </c>
-      <c r="C138" s="80"/>
-      <c r="D138" s="80"/>
-      <c r="E138" s="81"/>
+      <c r="C138" s="83"/>
+      <c r="D138" s="83"/>
+      <c r="E138" s="84"/>
       <c r="F138" s="54" t="s">
         <v>28</v>
       </c>
@@ -8127,14 +8127,14 @@
       <c r="A139" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B139" s="76" t="s">
+      <c r="B139" s="92" t="s">
         <v>149</v>
       </c>
-      <c r="C139" s="77"/>
-      <c r="D139" s="77"/>
-      <c r="E139" s="77"/>
-      <c r="F139" s="77"/>
-      <c r="G139" s="78"/>
+      <c r="C139" s="93"/>
+      <c r="D139" s="93"/>
+      <c r="E139" s="93"/>
+      <c r="F139" s="93"/>
+      <c r="G139" s="94"/>
     </row>
     <row r="140" spans="1:7" s="52" customFormat="1">
       <c r="A140" s="57" t="s">
@@ -8216,23 +8216,23 @@
       <c r="A144" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B144" s="85"/>
-      <c r="C144" s="86"/>
-      <c r="D144" s="86"/>
-      <c r="E144" s="86"/>
-      <c r="F144" s="86"/>
-      <c r="G144" s="87"/>
+      <c r="B144" s="76"/>
+      <c r="C144" s="77"/>
+      <c r="D144" s="77"/>
+      <c r="E144" s="77"/>
+      <c r="F144" s="77"/>
+      <c r="G144" s="78"/>
     </row>
     <row r="145" spans="1:7" s="52" customFormat="1" ht="42" customHeight="1">
       <c r="A145" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="B145" s="79" t="s">
+      <c r="B145" s="82" t="s">
         <v>129</v>
       </c>
-      <c r="C145" s="80"/>
-      <c r="D145" s="80"/>
-      <c r="E145" s="81"/>
+      <c r="C145" s="83"/>
+      <c r="D145" s="83"/>
+      <c r="E145" s="84"/>
       <c r="F145" s="54" t="s">
         <v>28</v>
       </c>
@@ -8245,14 +8245,14 @@
       <c r="A146" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B146" s="76" t="s">
+      <c r="B146" s="92" t="s">
         <v>156</v>
       </c>
-      <c r="C146" s="77"/>
-      <c r="D146" s="77"/>
-      <c r="E146" s="77"/>
-      <c r="F146" s="77"/>
-      <c r="G146" s="78"/>
+      <c r="C146" s="93"/>
+      <c r="D146" s="93"/>
+      <c r="E146" s="93"/>
+      <c r="F146" s="93"/>
+      <c r="G146" s="94"/>
     </row>
     <row r="147" spans="1:7" s="52" customFormat="1">
       <c r="A147" s="57" t="s">
@@ -8387,12 +8387,12 @@
       <c r="A154" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B154" s="85"/>
-      <c r="C154" s="86"/>
-      <c r="D154" s="86"/>
-      <c r="E154" s="86"/>
-      <c r="F154" s="86"/>
-      <c r="G154" s="87"/>
+      <c r="B154" s="76"/>
+      <c r="C154" s="77"/>
+      <c r="D154" s="77"/>
+      <c r="E154" s="77"/>
+      <c r="F154" s="77"/>
+      <c r="G154" s="78"/>
     </row>
     <row r="155" spans="1:7">
       <c r="A155"/>
@@ -15339,16 +15339,53 @@
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="B139:G139"/>
+    <mergeCell ref="B145:E145"/>
+    <mergeCell ref="B146:G146"/>
+    <mergeCell ref="B123:E123"/>
+    <mergeCell ref="B124:G124"/>
+    <mergeCell ref="B132:E132"/>
+    <mergeCell ref="B133:G133"/>
+    <mergeCell ref="B138:E138"/>
+    <mergeCell ref="B131:G131"/>
+    <mergeCell ref="B137:G137"/>
+    <mergeCell ref="B144:G144"/>
+    <mergeCell ref="B114:E114"/>
+    <mergeCell ref="B115:G115"/>
+    <mergeCell ref="B122:G122"/>
+    <mergeCell ref="B98:G98"/>
+    <mergeCell ref="B104:G104"/>
+    <mergeCell ref="B97:E97"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="B81:G81"/>
+    <mergeCell ref="B88:G88"/>
+    <mergeCell ref="B89:E89"/>
+    <mergeCell ref="B90:G90"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="B96:G96"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="B18:E18"/>
     <mergeCell ref="B154:G154"/>
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="B105:E105"/>
     <mergeCell ref="B106:G106"/>
     <mergeCell ref="B113:G113"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="B18:E18"/>
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="B24:G24"/>
@@ -15360,43 +15397,6 @@
     <mergeCell ref="B37:G37"/>
     <mergeCell ref="B42:G42"/>
     <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="B64:G64"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="B66:G66"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B73:G73"/>
-    <mergeCell ref="B79:G79"/>
-    <mergeCell ref="B96:G96"/>
-    <mergeCell ref="B97:E97"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="B81:G81"/>
-    <mergeCell ref="B88:G88"/>
-    <mergeCell ref="B89:E89"/>
-    <mergeCell ref="B90:G90"/>
-    <mergeCell ref="B114:E114"/>
-    <mergeCell ref="B115:G115"/>
-    <mergeCell ref="B122:G122"/>
-    <mergeCell ref="B98:G98"/>
-    <mergeCell ref="B104:G104"/>
-    <mergeCell ref="B139:G139"/>
-    <mergeCell ref="B145:E145"/>
-    <mergeCell ref="B146:G146"/>
-    <mergeCell ref="B123:E123"/>
-    <mergeCell ref="B124:G124"/>
-    <mergeCell ref="B132:E132"/>
-    <mergeCell ref="B133:G133"/>
-    <mergeCell ref="B138:E138"/>
-    <mergeCell ref="B131:G131"/>
-    <mergeCell ref="B137:G137"/>
-    <mergeCell ref="B144:G144"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" showErrorMessage="1" promptTitle="Valid values include:" prompt="_x000a_" sqref="F466:F468 F39:F41 F473:F479 F692:F694 F682:F687 F484:F493 F498:F501 F506:F511 F516:F524 F529:F538 F543:F553 F558:F568 F584:F590 F612:F614 F573:F579 F595:F601 F606:F607 F619:F625 F630:F636 F652:F654 F641:F647 F659:F662 F667:F669 F674:F677 F26:F27 F61:F63 F21 F46:F48 F32:F34 F53:F56 F68:F70 F75:F78 F83:F87 F92:F95 F100:F103 F108:F112 F117:F121 F148:F153 F126:F130 F135:F136 F141:F143" xr:uid="{00000000-0002-0000-0200-000000000000}">

--- a/TCS_NEWUI_FieldOptions.xlsx
+++ b/TCS_NEWUI_FieldOptions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sumit Rana\Projects\AdIntel- New\Test Cases\TC Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B9E0D1-6982-4D8B-AD79-F9E073A4B79A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C88B1E-BD86-455C-A0FE-2705E8B44F86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="815" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="815" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="5" r:id="rId1"/>
@@ -47,19 +47,11 @@
     <definedName name="test">#REF!</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="172">
   <si>
     <t>Test Case Result Modules-Wise</t>
   </si>
@@ -372,9 +364,6 @@
   </si>
   <si>
     <t>Click on Sorting icon from visible fields</t>
-  </si>
-  <si>
-    <t>Expected behavior is pending as functionality is not fully dveloped</t>
   </si>
   <si>
     <t>US:WEB-7336_TC 08</t>
@@ -592,6 +581,53 @@
   </si>
   <si>
     <t>SMART-AdIntel</t>
+  </si>
+  <si>
+    <t>Expected behavior is pending as functionality is not fully devloped</t>
+  </si>
+  <si>
+    <t>TC19</t>
+  </si>
+  <si>
+    <t>Fields up-down icons should be displayed properly in field options when sorting is not applicable for specific fields</t>
+  </si>
+  <si>
+    <t>US:WEB-7336_TC 19</t>
+  </si>
+  <si>
+    <t>SMRT-8184</t>
+  </si>
+  <si>
+    <t>User should on Home screen of the application.
+Home screen should contain below section:
+1. Numerator logo on Top Left side of screen
+2. Report list in Nvigation bar of left side 
+3. Edit search(Saved search) list on top left side
+4. Summary tag as per current date filter below edit search
+5. Save and Reset button as Disabled on top right side
+6. Breadcrumb below summary tag
+7. Carousel,Chart and AgGrid on report page
+8. Field options, Export Result,Search options &amp; live agent button on Right bottom side</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">User account : Brand Canada
+Fields : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Last run date</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Field should be added from hidden field to visible
+2. Reset button should be Enabled
+3. up-down arrows should be displayed proeperly</t>
   </si>
 </sst>
 </file>
@@ -2067,7 +2103,7 @@
     </xf>
     <xf numFmtId="41" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="92" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="134"/>
@@ -2238,6 +2274,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="147" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="147" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="26" borderId="7" xfId="134" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2265,6 +2304,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="147" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="39" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="40" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="41" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="39" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="40" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="41" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="39" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2274,22 +2331,7 @@
     <xf numFmtId="0" fontId="5" fillId="29" borderId="41" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="39" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="40" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="41" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="46" fillId="31" borderId="39" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="31" borderId="40" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="31" borderId="41" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="29" borderId="36" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2309,9 +2351,6 @@
     </xf>
     <xf numFmtId="0" fontId="35" fillId="30" borderId="38" xfId="145" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="31" borderId="39" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="39" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2788,7 +2827,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3091,10 +3130,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.94444444444444442</c:v>
+                  <c:v>0.94736842105263153</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.555555555555558E-2</c:v>
+                  <c:v>5.2631578947368474E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3290,7 +3329,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4223,33 +4262,33 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:7" ht="18" customHeight="1">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="74" t="s">
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="75" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30.75" thickBot="1">
-      <c r="A7" s="70"/>
+      <c r="A7" s="71"/>
       <c r="B7" s="41" t="s">
         <v>4</v>
       </c>
@@ -4265,7 +4304,7 @@
       <c r="F7" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="74"/>
+      <c r="G7" s="75"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickTop="1">
       <c r="A8" s="1" t="s">
@@ -4273,7 +4312,7 @@
       </c>
       <c r="B8" s="43">
         <f>'SMART- Field options'!G7</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="43">
         <f>'SMART- Field options'!G8</f>
@@ -4289,11 +4328,11 @@
       </c>
       <c r="F8" s="43">
         <f>SUM(B8:E8)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G8" s="48">
         <f>(B8+C8+D8)/(F8)</f>
-        <v>0.94444444444444442</v>
+        <v>0.94736842105263153</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4311,7 +4350,7 @@
       </c>
       <c r="B10" s="49">
         <f>SUM(B8:B9)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" s="49">
         <f>SUM(C8:C9)</f>
@@ -4327,11 +4366,11 @@
       </c>
       <c r="F10" s="49">
         <f>SUM(F8:F9)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G10" s="45">
         <f>SUM(G8:G8)</f>
-        <v>0.94444444444444442</v>
+        <v>0.94736842105263153</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickTop="1">
@@ -4340,7 +4379,7 @@
       </c>
       <c r="G11" s="46">
         <f>100%-G10</f>
-        <v>5.555555555555558E-2</v>
+        <v>5.2631578947368474E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -4366,8 +4405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4644,8 +4683,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A2" s="75" t="s">
-        <v>132</v>
+      <c r="A2" s="76" t="s">
+        <v>131</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
@@ -4655,7 +4694,7 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="75"/>
+      <c r="A3" s="76"/>
       <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
@@ -4666,7 +4705,7 @@
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="75"/>
+      <c r="A4" s="76"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -4676,7 +4715,7 @@
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="75"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
@@ -4686,7 +4725,7 @@
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="75"/>
+      <c r="A6" s="76"/>
       <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
@@ -4697,7 +4736,7 @@
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="75"/>
+      <c r="A7" s="76"/>
       <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
@@ -4708,7 +4747,7 @@
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="75"/>
+      <c r="A8" s="76"/>
       <c r="B8" s="4" t="s">
         <v>38</v>
       </c>
@@ -4718,7 +4757,7 @@
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="75"/>
+      <c r="A9" s="76"/>
       <c r="B9" s="4" t="s">
         <v>39</v>
       </c>
@@ -4728,7 +4767,7 @@
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="75"/>
+      <c r="A10" s="76"/>
       <c r="B10" s="4" t="s">
         <v>40</v>
       </c>
@@ -4739,29 +4778,29 @@
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="75"/>
+      <c r="A11" s="76"/>
       <c r="B11" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="75"/>
+      <c r="A12" s="76"/>
       <c r="B12" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:7" ht="45">
-      <c r="A13" s="75"/>
+      <c r="A13" s="76"/>
       <c r="B13" s="4" t="s">
         <v>43</v>
       </c>
@@ -4769,23 +4808,23 @@
         <v>58</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:7" ht="60">
-      <c r="A14" s="75"/>
+      <c r="A14" s="76"/>
       <c r="B14" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="75"/>
+      <c r="A15" s="76"/>
       <c r="B15" s="4" t="s">
         <v>48</v>
       </c>
@@ -4799,182 +4838,190 @@
       <c r="G15"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="75"/>
+      <c r="A16" s="76"/>
       <c r="B16" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="76"/>
+      <c r="B17" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="G16"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="75"/>
-      <c r="B17" s="4" t="s">
-        <v>136</v>
-      </c>
       <c r="C17" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E17" s="6"/>
       <c r="G17"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="75"/>
+      <c r="A18" s="76"/>
       <c r="B18" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="6"/>
       <c r="G18"/>
     </row>
     <row r="19" spans="1:7" ht="30">
-      <c r="A19" s="75"/>
+      <c r="A19" s="76"/>
       <c r="B19" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E19" s="6"/>
       <c r="G19"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="75"/>
-      <c r="B20" s="4"/>
+      <c r="A20" s="76"/>
+      <c r="B20" s="67" t="s">
+        <v>165</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>168</v>
+      </c>
       <c r="G20"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="75"/>
+      <c r="A21" s="76"/>
       <c r="B21" s="4"/>
       <c r="C21"/>
       <c r="E21" s="6"/>
       <c r="G21"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="75"/>
+      <c r="A22" s="76"/>
       <c r="B22" s="4"/>
       <c r="C22" s="7"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="75"/>
+      <c r="A23" s="76"/>
       <c r="B23" s="4"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="75"/>
+      <c r="A24" s="76"/>
       <c r="B24" s="4"/>
       <c r="C24" s="7"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="75"/>
+      <c r="A25" s="76"/>
       <c r="B25" s="4"/>
       <c r="C25" s="35"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="75"/>
+      <c r="A26" s="76"/>
       <c r="B26" s="4"/>
       <c r="C26" s="35"/>
       <c r="E26" s="6"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="75"/>
+      <c r="A27" s="76"/>
       <c r="B27" s="4"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="75"/>
+      <c r="A28" s="76"/>
       <c r="B28" s="4"/>
       <c r="C28" s="37"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="75"/>
+      <c r="A29" s="76"/>
       <c r="B29" s="4"/>
       <c r="C29" s="37"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="75"/>
+      <c r="A30" s="76"/>
       <c r="B30" s="4"/>
       <c r="C30" s="37"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="75"/>
+      <c r="A31" s="76"/>
       <c r="B31" s="4"/>
       <c r="C31" s="7"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="75"/>
+      <c r="A32" s="76"/>
       <c r="B32" s="4"/>
       <c r="C32" s="36"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="75"/>
+      <c r="A33" s="76"/>
       <c r="B33" s="4"/>
       <c r="C33" s="7"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="75"/>
+      <c r="A34" s="76"/>
       <c r="B34" s="4"/>
       <c r="C34" s="7"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="75"/>
+      <c r="A35" s="76"/>
       <c r="B35" s="4"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="75"/>
+      <c r="A36" s="76"/>
       <c r="B36" s="4"/>
       <c r="C36" s="7"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="75"/>
+      <c r="A37" s="76"/>
       <c r="B37" s="4"/>
       <c r="C37" s="7"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="75"/>
+      <c r="A38" s="76"/>
       <c r="B38" s="4"/>
       <c r="C38" s="7"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="75"/>
+      <c r="A39" s="76"/>
       <c r="B39" s="4"/>
       <c r="C39" s="7"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="75"/>
+      <c r="A40" s="76"/>
       <c r="B40" s="4"/>
       <c r="C40" s="7"/>
     </row>
@@ -5221,10 +5268,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G983"/>
+  <dimension ref="A1:G980"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -5890,10 +5937,10 @@
       </c>
       <c r="D2"/>
       <c r="E2" s="11"/>
-      <c r="F2" s="85" t="s">
+      <c r="F2" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="86"/>
+      <c r="G2" s="88"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="11"/>
@@ -5901,7 +5948,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D3"/>
       <c r="E3" s="11"/>
@@ -5918,7 +5965,7 @@
         <v>20</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D4"/>
       <c r="E4" s="11"/>
@@ -5926,7 +5973,7 @@
         <v>21</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1">
@@ -5943,7 +5990,7 @@
         <v>23</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1">
@@ -5954,10 +6001,10 @@
       <c r="C6" s="39"/>
       <c r="D6"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="87" t="s">
+      <c r="F6" s="89" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="88"/>
+      <c r="G6" s="90"/>
     </row>
     <row r="7" spans="1:7" ht="19.5" customHeight="1" thickBot="1">
       <c r="A7" s="11"/>
@@ -5973,8 +6020,8 @@
         <v>4</v>
       </c>
       <c r="G7" s="22">
-        <f>COUNTIF(G11:G1109,"Pass")</f>
-        <v>17</v>
+        <f>COUNTIF(G11:G1106,"Pass")</f>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1">
@@ -5989,7 +6036,7 @@
         <v>5</v>
       </c>
       <c r="G8" s="22">
-        <f>COUNTIF(G12:G1110,"Fail")</f>
+        <f>COUNTIF(G12:G1107,"Fail")</f>
         <v>0</v>
       </c>
     </row>
@@ -6007,7 +6054,7 @@
         <v>46</v>
       </c>
       <c r="G9" s="22">
-        <f>COUNTIF(G13:G1111,"Blocked")</f>
+        <f>COUNTIF(G13:G1108,"Blocked")</f>
         <v>0</v>
       </c>
     </row>
@@ -6023,7 +6070,7 @@
         <v>45</v>
       </c>
       <c r="G10" s="22">
-        <f>COUNTIF(G14:G1112,"Not Executed")</f>
+        <f>COUNTIF(G14:G1109,"Not Executed")</f>
         <v>1</v>
       </c>
     </row>
@@ -6034,7 +6081,7 @@
       </c>
       <c r="C11" s="39">
         <f>G7</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11"/>
       <c r="E11" s="11"/>
@@ -6088,37 +6135,37 @@
       <c r="G15" s="20"/>
     </row>
     <row r="16" spans="1:7" s="52" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A16" s="89" t="s">
+      <c r="A16" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="89"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="89"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="91"/>
     </row>
     <row r="17" spans="1:7" s="52" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A17" s="90" t="s">
+      <c r="A17" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="90"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
     </row>
     <row r="18" spans="1:7" s="52" customFormat="1">
       <c r="A18" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="91" t="s">
+      <c r="B18" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="83"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="84"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="82"/>
       <c r="F18" s="54" t="s">
         <v>28</v>
       </c>
@@ -6131,14 +6178,14 @@
       <c r="A19" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="79" t="s">
+      <c r="B19" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="81"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="79"/>
     </row>
     <row r="20" spans="1:7" s="52" customFormat="1">
       <c r="A20" s="57" t="s">
@@ -6171,7 +6218,7 @@
         <v>65</v>
       </c>
       <c r="C21" s="60" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="D21" s="60"/>
       <c r="E21" s="60"/>
@@ -6184,23 +6231,23 @@
       <c r="A22" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="76"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="78"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="85"/>
     </row>
     <row r="23" spans="1:7" s="52" customFormat="1">
       <c r="A23" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="91" t="s">
+      <c r="B23" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="83"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="84"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="82"/>
       <c r="F23" s="54" t="s">
         <v>28</v>
       </c>
@@ -6213,14 +6260,14 @@
       <c r="A24" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="79" t="s">
+      <c r="B24" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="81"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="79"/>
     </row>
     <row r="25" spans="1:7" s="52" customFormat="1">
       <c r="A25" s="57" t="s">
@@ -6253,7 +6300,7 @@
         <v>65</v>
       </c>
       <c r="C26" s="60" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="D26" s="60"/>
       <c r="E26" s="60"/>
@@ -6283,23 +6330,23 @@
       <c r="A28" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="76"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="78"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="85"/>
     </row>
     <row r="29" spans="1:7" s="52" customFormat="1">
       <c r="A29" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="91" t="s">
+      <c r="B29" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="83"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="84"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="82"/>
       <c r="F29" s="54" t="s">
         <v>28</v>
       </c>
@@ -6312,14 +6359,14 @@
       <c r="A30" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="79" t="s">
+      <c r="B30" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="80"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="81"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="78"/>
+      <c r="E30" s="78"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="79"/>
     </row>
     <row r="31" spans="1:7" s="52" customFormat="1">
       <c r="A31" s="57" t="s">
@@ -6352,7 +6399,7 @@
         <v>65</v>
       </c>
       <c r="C32" s="60" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="D32" s="60"/>
       <c r="E32" s="60"/>
@@ -6399,23 +6446,23 @@
       <c r="A35" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="76"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="78"/>
+      <c r="B35" s="83"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="84"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="84"/>
+      <c r="G35" s="85"/>
     </row>
     <row r="36" spans="1:7" s="52" customFormat="1">
       <c r="A36" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="B36" s="91" t="s">
+      <c r="B36" s="86" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="83"/>
-      <c r="D36" s="83"/>
-      <c r="E36" s="84"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="82"/>
       <c r="F36" s="54" t="s">
         <v>28</v>
       </c>
@@ -6428,14 +6475,14 @@
       <c r="A37" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="79" t="s">
+      <c r="B37" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="80"/>
-      <c r="D37" s="80"/>
-      <c r="E37" s="80"/>
-      <c r="F37" s="80"/>
-      <c r="G37" s="81"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="78"/>
+      <c r="F37" s="78"/>
+      <c r="G37" s="79"/>
     </row>
     <row r="38" spans="1:7" s="52" customFormat="1">
       <c r="A38" s="57" t="s">
@@ -6468,7 +6515,7 @@
         <v>65</v>
       </c>
       <c r="C39" s="60" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="D39" s="60"/>
       <c r="E39" s="60"/>
@@ -6515,23 +6562,23 @@
       <c r="A42" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="76"/>
-      <c r="C42" s="77"/>
-      <c r="D42" s="77"/>
-      <c r="E42" s="77"/>
-      <c r="F42" s="77"/>
-      <c r="G42" s="78"/>
+      <c r="B42" s="83"/>
+      <c r="C42" s="84"/>
+      <c r="D42" s="84"/>
+      <c r="E42" s="84"/>
+      <c r="F42" s="84"/>
+      <c r="G42" s="85"/>
     </row>
     <row r="43" spans="1:7" s="52" customFormat="1">
       <c r="A43" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="91" t="s">
+      <c r="B43" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="83"/>
-      <c r="D43" s="83"/>
-      <c r="E43" s="84"/>
+      <c r="C43" s="81"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="82"/>
       <c r="F43" s="54" t="s">
         <v>28</v>
       </c>
@@ -6544,14 +6591,14 @@
       <c r="A44" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B44" s="79" t="s">
+      <c r="B44" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="C44" s="80"/>
-      <c r="D44" s="80"/>
-      <c r="E44" s="80"/>
-      <c r="F44" s="80"/>
-      <c r="G44" s="81"/>
+      <c r="C44" s="78"/>
+      <c r="D44" s="78"/>
+      <c r="E44" s="78"/>
+      <c r="F44" s="78"/>
+      <c r="G44" s="79"/>
     </row>
     <row r="45" spans="1:7" s="52" customFormat="1">
       <c r="A45" s="57" t="s">
@@ -6584,7 +6631,7 @@
         <v>65</v>
       </c>
       <c r="C46" s="60" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="D46" s="60"/>
       <c r="E46" s="60"/>
@@ -6631,23 +6678,23 @@
       <c r="A49" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B49" s="76"/>
-      <c r="C49" s="77"/>
-      <c r="D49" s="77"/>
-      <c r="E49" s="77"/>
-      <c r="F49" s="77"/>
-      <c r="G49" s="78"/>
+      <c r="B49" s="83"/>
+      <c r="C49" s="84"/>
+      <c r="D49" s="84"/>
+      <c r="E49" s="84"/>
+      <c r="F49" s="84"/>
+      <c r="G49" s="85"/>
     </row>
     <row r="50" spans="1:7" s="52" customFormat="1">
       <c r="A50" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="B50" s="91" t="s">
+      <c r="B50" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="C50" s="83"/>
-      <c r="D50" s="83"/>
-      <c r="E50" s="84"/>
+      <c r="C50" s="81"/>
+      <c r="D50" s="81"/>
+      <c r="E50" s="82"/>
       <c r="F50" s="54" t="s">
         <v>28</v>
       </c>
@@ -6660,14 +6707,14 @@
       <c r="A51" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B51" s="79" t="s">
+      <c r="B51" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="C51" s="80"/>
-      <c r="D51" s="80"/>
-      <c r="E51" s="80"/>
-      <c r="F51" s="80"/>
-      <c r="G51" s="81"/>
+      <c r="C51" s="78"/>
+      <c r="D51" s="78"/>
+      <c r="E51" s="78"/>
+      <c r="F51" s="78"/>
+      <c r="G51" s="79"/>
     </row>
     <row r="52" spans="1:7" s="52" customFormat="1">
       <c r="A52" s="57" t="s">
@@ -6700,7 +6747,7 @@
         <v>65</v>
       </c>
       <c r="C53" s="60" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="D53" s="60"/>
       <c r="E53" s="60"/>
@@ -6764,23 +6811,23 @@
       <c r="A57" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B57" s="76"/>
-      <c r="C57" s="77"/>
-      <c r="D57" s="77"/>
-      <c r="E57" s="77"/>
-      <c r="F57" s="77"/>
-      <c r="G57" s="78"/>
+      <c r="B57" s="83"/>
+      <c r="C57" s="84"/>
+      <c r="D57" s="84"/>
+      <c r="E57" s="84"/>
+      <c r="F57" s="84"/>
+      <c r="G57" s="85"/>
     </row>
     <row r="58" spans="1:7" s="52" customFormat="1">
       <c r="A58" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="B58" s="91" t="s">
+      <c r="B58" s="86" t="s">
         <v>99</v>
       </c>
-      <c r="C58" s="83"/>
-      <c r="D58" s="83"/>
-      <c r="E58" s="84"/>
+      <c r="C58" s="81"/>
+      <c r="D58" s="81"/>
+      <c r="E58" s="82"/>
       <c r="F58" s="54" t="s">
         <v>28</v>
       </c>
@@ -6793,14 +6840,14 @@
       <c r="A59" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B59" s="79" t="s">
+      <c r="B59" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="C59" s="80"/>
-      <c r="D59" s="80"/>
-      <c r="E59" s="80"/>
-      <c r="F59" s="80"/>
-      <c r="G59" s="81"/>
+      <c r="C59" s="78"/>
+      <c r="D59" s="78"/>
+      <c r="E59" s="78"/>
+      <c r="F59" s="78"/>
+      <c r="G59" s="79"/>
     </row>
     <row r="60" spans="1:7" s="52" customFormat="1">
       <c r="A60" s="57" t="s">
@@ -6833,7 +6880,7 @@
         <v>65</v>
       </c>
       <c r="C61" s="60" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="D61" s="60"/>
       <c r="E61" s="60"/>
@@ -6867,7 +6914,7 @@
         <v>101</v>
       </c>
       <c r="C63" s="60" t="s">
-        <v>102</v>
+        <v>164</v>
       </c>
       <c r="D63" s="60"/>
       <c r="E63" s="60"/>
@@ -6878,23 +6925,23 @@
       <c r="A64" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B64" s="76"/>
-      <c r="C64" s="77"/>
-      <c r="D64" s="77"/>
-      <c r="E64" s="77"/>
-      <c r="F64" s="77"/>
-      <c r="G64" s="78"/>
+      <c r="B64" s="83"/>
+      <c r="C64" s="84"/>
+      <c r="D64" s="84"/>
+      <c r="E64" s="84"/>
+      <c r="F64" s="84"/>
+      <c r="G64" s="85"/>
     </row>
     <row r="65" spans="1:7" s="52" customFormat="1">
       <c r="A65" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="B65" s="91" t="s">
+        <v>102</v>
+      </c>
+      <c r="B65" s="86" t="s">
         <v>100</v>
       </c>
-      <c r="C65" s="83"/>
-      <c r="D65" s="83"/>
-      <c r="E65" s="84"/>
+      <c r="C65" s="81"/>
+      <c r="D65" s="81"/>
+      <c r="E65" s="82"/>
       <c r="F65" s="54" t="s">
         <v>28</v>
       </c>
@@ -6907,14 +6954,14 @@
       <c r="A66" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B66" s="79" t="s">
+      <c r="B66" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="C66" s="80"/>
-      <c r="D66" s="80"/>
-      <c r="E66" s="80"/>
-      <c r="F66" s="80"/>
-      <c r="G66" s="81"/>
+      <c r="C66" s="78"/>
+      <c r="D66" s="78"/>
+      <c r="E66" s="78"/>
+      <c r="F66" s="78"/>
+      <c r="G66" s="79"/>
     </row>
     <row r="67" spans="1:7" s="52" customFormat="1">
       <c r="A67" s="57" t="s">
@@ -6947,7 +6994,7 @@
         <v>65</v>
       </c>
       <c r="C68" s="60" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="D68" s="60"/>
       <c r="E68" s="60"/>
@@ -6981,7 +7028,7 @@
         <v>50</v>
       </c>
       <c r="C70" s="60" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D70" s="60"/>
       <c r="E70" s="60"/>
@@ -6994,23 +7041,23 @@
       <c r="A71" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B71" s="76"/>
-      <c r="C71" s="77"/>
-      <c r="D71" s="77"/>
-      <c r="E71" s="77"/>
-      <c r="F71" s="77"/>
-      <c r="G71" s="78"/>
+      <c r="B71" s="83"/>
+      <c r="C71" s="84"/>
+      <c r="D71" s="84"/>
+      <c r="E71" s="84"/>
+      <c r="F71" s="84"/>
+      <c r="G71" s="85"/>
     </row>
     <row r="72" spans="1:7" s="52" customFormat="1">
       <c r="A72" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="B72" s="91" t="s">
+        <v>104</v>
+      </c>
+      <c r="B72" s="86" t="s">
         <v>94</v>
       </c>
-      <c r="C72" s="83"/>
-      <c r="D72" s="83"/>
-      <c r="E72" s="84"/>
+      <c r="C72" s="81"/>
+      <c r="D72" s="81"/>
+      <c r="E72" s="82"/>
       <c r="F72" s="54" t="s">
         <v>28</v>
       </c>
@@ -7023,14 +7070,14 @@
       <c r="A73" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B73" s="79" t="s">
+      <c r="B73" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="C73" s="80"/>
-      <c r="D73" s="80"/>
-      <c r="E73" s="80"/>
-      <c r="F73" s="80"/>
-      <c r="G73" s="81"/>
+      <c r="C73" s="78"/>
+      <c r="D73" s="78"/>
+      <c r="E73" s="78"/>
+      <c r="F73" s="78"/>
+      <c r="G73" s="79"/>
     </row>
     <row r="74" spans="1:7" s="52" customFormat="1">
       <c r="A74" s="57" t="s">
@@ -7063,7 +7110,7 @@
         <v>65</v>
       </c>
       <c r="C75" s="60" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="D75" s="60"/>
       <c r="E75" s="60"/>
@@ -7111,10 +7158,10 @@
         <v>4</v>
       </c>
       <c r="B78" s="59" t="s">
+        <v>105</v>
+      </c>
+      <c r="C78" s="60" t="s">
         <v>106</v>
-      </c>
-      <c r="C78" s="60" t="s">
-        <v>107</v>
       </c>
       <c r="D78" s="60"/>
       <c r="E78" s="60"/>
@@ -7127,23 +7174,23 @@
       <c r="A79" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B79" s="76"/>
-      <c r="C79" s="77"/>
-      <c r="D79" s="77"/>
-      <c r="E79" s="77"/>
-      <c r="F79" s="77"/>
-      <c r="G79" s="78"/>
+      <c r="B79" s="83"/>
+      <c r="C79" s="84"/>
+      <c r="D79" s="84"/>
+      <c r="E79" s="84"/>
+      <c r="F79" s="84"/>
+      <c r="G79" s="85"/>
     </row>
     <row r="80" spans="1:7" s="52" customFormat="1">
       <c r="A80" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="B80" s="91" t="s">
         <v>108</v>
       </c>
-      <c r="C80" s="83"/>
-      <c r="D80" s="83"/>
-      <c r="E80" s="84"/>
+      <c r="B80" s="86" t="s">
+        <v>107</v>
+      </c>
+      <c r="C80" s="81"/>
+      <c r="D80" s="81"/>
+      <c r="E80" s="82"/>
       <c r="F80" s="54" t="s">
         <v>28</v>
       </c>
@@ -7156,14 +7203,14 @@
       <c r="A81" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B81" s="79" t="s">
+      <c r="B81" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="C81" s="80"/>
-      <c r="D81" s="80"/>
-      <c r="E81" s="80"/>
-      <c r="F81" s="80"/>
-      <c r="G81" s="81"/>
+      <c r="C81" s="78"/>
+      <c r="D81" s="78"/>
+      <c r="E81" s="78"/>
+      <c r="F81" s="78"/>
+      <c r="G81" s="79"/>
     </row>
     <row r="82" spans="1:7" s="52" customFormat="1">
       <c r="A82" s="57" t="s">
@@ -7196,7 +7243,7 @@
         <v>65</v>
       </c>
       <c r="C83" s="60" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="D83" s="60"/>
       <c r="E83" s="60"/>
@@ -7247,7 +7294,7 @@
         <v>50</v>
       </c>
       <c r="C86" s="60" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D86" s="60"/>
       <c r="E86" s="60"/>
@@ -7261,10 +7308,10 @@
         <v>5</v>
       </c>
       <c r="B87" s="59" t="s">
+        <v>110</v>
+      </c>
+      <c r="C87" s="60" t="s">
         <v>111</v>
-      </c>
-      <c r="C87" s="60" t="s">
-        <v>112</v>
       </c>
       <c r="D87" s="60"/>
       <c r="E87" s="60"/>
@@ -7277,23 +7324,23 @@
       <c r="A88" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B88" s="76"/>
-      <c r="C88" s="77"/>
-      <c r="D88" s="77"/>
-      <c r="E88" s="77"/>
-      <c r="F88" s="77"/>
-      <c r="G88" s="78"/>
+      <c r="B88" s="83"/>
+      <c r="C88" s="84"/>
+      <c r="D88" s="84"/>
+      <c r="E88" s="84"/>
+      <c r="F88" s="84"/>
+      <c r="G88" s="85"/>
     </row>
     <row r="89" spans="1:7" s="52" customFormat="1">
       <c r="A89" s="53" t="s">
-        <v>114</v>
-      </c>
-      <c r="B89" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="C89" s="83"/>
-      <c r="D89" s="83"/>
-      <c r="E89" s="84"/>
+      <c r="B89" s="86" t="s">
+        <v>112</v>
+      </c>
+      <c r="C89" s="81"/>
+      <c r="D89" s="81"/>
+      <c r="E89" s="82"/>
       <c r="F89" s="54" t="s">
         <v>28</v>
       </c>
@@ -7306,14 +7353,14 @@
       <c r="A90" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B90" s="79" t="s">
+      <c r="B90" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="C90" s="80"/>
-      <c r="D90" s="80"/>
-      <c r="E90" s="80"/>
-      <c r="F90" s="80"/>
-      <c r="G90" s="81"/>
+      <c r="C90" s="78"/>
+      <c r="D90" s="78"/>
+      <c r="E90" s="78"/>
+      <c r="F90" s="78"/>
+      <c r="G90" s="79"/>
     </row>
     <row r="91" spans="1:7" s="52" customFormat="1">
       <c r="A91" s="57" t="s">
@@ -7346,7 +7393,7 @@
         <v>65</v>
       </c>
       <c r="C92" s="60" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="D92" s="60"/>
       <c r="E92" s="60"/>
@@ -7394,10 +7441,10 @@
         <v>4</v>
       </c>
       <c r="B95" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="C95" s="60" t="s">
         <v>115</v>
-      </c>
-      <c r="C95" s="60" t="s">
-        <v>116</v>
       </c>
       <c r="D95" s="60"/>
       <c r="E95" s="60"/>
@@ -7410,23 +7457,23 @@
       <c r="A96" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B96" s="76"/>
-      <c r="C96" s="77"/>
-      <c r="D96" s="77"/>
-      <c r="E96" s="77"/>
-      <c r="F96" s="77"/>
-      <c r="G96" s="78"/>
+      <c r="B96" s="83"/>
+      <c r="C96" s="84"/>
+      <c r="D96" s="84"/>
+      <c r="E96" s="84"/>
+      <c r="F96" s="84"/>
+      <c r="G96" s="85"/>
     </row>
     <row r="97" spans="1:7" s="52" customFormat="1">
       <c r="A97" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="B97" s="91" t="s">
+        <v>116</v>
+      </c>
+      <c r="B97" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="C97" s="83"/>
-      <c r="D97" s="83"/>
-      <c r="E97" s="84"/>
+      <c r="C97" s="81"/>
+      <c r="D97" s="81"/>
+      <c r="E97" s="82"/>
       <c r="F97" s="54" t="s">
         <v>28</v>
       </c>
@@ -7439,14 +7486,14 @@
       <c r="A98" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B98" s="79" t="s">
-        <v>118</v>
-      </c>
-      <c r="C98" s="80"/>
-      <c r="D98" s="80"/>
-      <c r="E98" s="80"/>
-      <c r="F98" s="80"/>
-      <c r="G98" s="81"/>
+      <c r="B98" s="77" t="s">
+        <v>117</v>
+      </c>
+      <c r="C98" s="78"/>
+      <c r="D98" s="78"/>
+      <c r="E98" s="78"/>
+      <c r="F98" s="78"/>
+      <c r="G98" s="79"/>
     </row>
     <row r="99" spans="1:7" s="52" customFormat="1">
       <c r="A99" s="57" t="s">
@@ -7479,7 +7526,7 @@
         <v>65</v>
       </c>
       <c r="C100" s="60" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D100" s="60"/>
       <c r="E100" s="60"/>
@@ -7516,7 +7563,7 @@
         <v>82</v>
       </c>
       <c r="D102" s="60" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E102" s="60"/>
       <c r="F102" s="61" t="s">
@@ -7529,10 +7576,10 @@
         <v>4</v>
       </c>
       <c r="B103" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="C103" s="60" t="s">
         <v>115</v>
-      </c>
-      <c r="C103" s="60" t="s">
-        <v>116</v>
       </c>
       <c r="D103" s="60"/>
       <c r="E103" s="60"/>
@@ -7545,23 +7592,23 @@
       <c r="A104" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B104" s="76"/>
-      <c r="C104" s="77"/>
-      <c r="D104" s="77"/>
-      <c r="E104" s="77"/>
-      <c r="F104" s="77"/>
-      <c r="G104" s="78"/>
+      <c r="B104" s="83"/>
+      <c r="C104" s="84"/>
+      <c r="D104" s="84"/>
+      <c r="E104" s="84"/>
+      <c r="F104" s="84"/>
+      <c r="G104" s="85"/>
     </row>
     <row r="105" spans="1:7" s="52" customFormat="1" ht="42" customHeight="1">
       <c r="A105" s="53" t="s">
-        <v>120</v>
-      </c>
-      <c r="B105" s="82" t="s">
-        <v>122</v>
-      </c>
-      <c r="C105" s="83"/>
-      <c r="D105" s="83"/>
-      <c r="E105" s="84"/>
+        <v>119</v>
+      </c>
+      <c r="B105" s="80" t="s">
+        <v>121</v>
+      </c>
+      <c r="C105" s="81"/>
+      <c r="D105" s="81"/>
+      <c r="E105" s="82"/>
       <c r="F105" s="54" t="s">
         <v>28</v>
       </c>
@@ -7574,14 +7621,14 @@
       <c r="A106" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B106" s="79" t="s">
-        <v>118</v>
-      </c>
-      <c r="C106" s="80"/>
-      <c r="D106" s="80"/>
-      <c r="E106" s="80"/>
-      <c r="F106" s="80"/>
-      <c r="G106" s="81"/>
+      <c r="B106" s="77" t="s">
+        <v>117</v>
+      </c>
+      <c r="C106" s="78"/>
+      <c r="D106" s="78"/>
+      <c r="E106" s="78"/>
+      <c r="F106" s="78"/>
+      <c r="G106" s="79"/>
     </row>
     <row r="107" spans="1:7" s="52" customFormat="1">
       <c r="A107" s="57" t="s">
@@ -7614,7 +7661,7 @@
         <v>65</v>
       </c>
       <c r="C108" s="60" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D108" s="60"/>
       <c r="E108" s="60"/>
@@ -7645,10 +7692,10 @@
         <v>3</v>
       </c>
       <c r="B110" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="C110" s="60" t="s">
         <v>123</v>
-      </c>
-      <c r="C110" s="60" t="s">
-        <v>124</v>
       </c>
       <c r="D110" s="60"/>
       <c r="E110" s="60"/>
@@ -7662,10 +7709,10 @@
         <v>4</v>
       </c>
       <c r="B111" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="C111" s="60" t="s">
         <v>115</v>
-      </c>
-      <c r="C111" s="60" t="s">
-        <v>116</v>
       </c>
       <c r="D111" s="60"/>
       <c r="E111" s="60"/>
@@ -7679,10 +7726,10 @@
         <v>5</v>
       </c>
       <c r="B112" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="C112" s="60" t="s">
         <v>125</v>
-      </c>
-      <c r="C112" s="60" t="s">
-        <v>126</v>
       </c>
       <c r="D112" s="60"/>
       <c r="E112" s="60"/>
@@ -7695,23 +7742,23 @@
       <c r="A113" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B113" s="76"/>
-      <c r="C113" s="77"/>
-      <c r="D113" s="77"/>
-      <c r="E113" s="77"/>
-      <c r="F113" s="77"/>
-      <c r="G113" s="78"/>
+      <c r="B113" s="83"/>
+      <c r="C113" s="84"/>
+      <c r="D113" s="84"/>
+      <c r="E113" s="84"/>
+      <c r="F113" s="84"/>
+      <c r="G113" s="85"/>
     </row>
     <row r="114" spans="1:7" s="52" customFormat="1" ht="42" customHeight="1">
       <c r="A114" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="B114" s="82" t="s">
+        <v>127</v>
+      </c>
+      <c r="B114" s="80" t="s">
         <v>60</v>
       </c>
-      <c r="C114" s="83"/>
-      <c r="D114" s="83"/>
-      <c r="E114" s="84"/>
+      <c r="C114" s="81"/>
+      <c r="D114" s="81"/>
+      <c r="E114" s="82"/>
       <c r="F114" s="54" t="s">
         <v>28</v>
       </c>
@@ -7724,14 +7771,14 @@
       <c r="A115" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B115" s="79" t="s">
-        <v>118</v>
-      </c>
-      <c r="C115" s="80"/>
-      <c r="D115" s="80"/>
-      <c r="E115" s="80"/>
-      <c r="F115" s="80"/>
-      <c r="G115" s="81"/>
+      <c r="B115" s="77" t="s">
+        <v>117</v>
+      </c>
+      <c r="C115" s="78"/>
+      <c r="D115" s="78"/>
+      <c r="E115" s="78"/>
+      <c r="F115" s="78"/>
+      <c r="G115" s="79"/>
     </row>
     <row r="116" spans="1:7" s="52" customFormat="1">
       <c r="A116" s="57" t="s">
@@ -7764,7 +7811,7 @@
         <v>65</v>
       </c>
       <c r="C117" s="60" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D117" s="60"/>
       <c r="E117" s="60"/>
@@ -7801,7 +7848,7 @@
         <v>82</v>
       </c>
       <c r="D119" s="60" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E119" s="60"/>
       <c r="F119" s="61" t="s">
@@ -7814,10 +7861,10 @@
         <v>4</v>
       </c>
       <c r="B120" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="C120" s="60" t="s">
         <v>115</v>
-      </c>
-      <c r="C120" s="60" t="s">
-        <v>116</v>
       </c>
       <c r="D120" s="60"/>
       <c r="E120" s="60"/>
@@ -7831,10 +7878,10 @@
         <v>5</v>
       </c>
       <c r="B121" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="C121" s="60" t="s">
         <v>130</v>
-      </c>
-      <c r="C121" s="60" t="s">
-        <v>131</v>
       </c>
       <c r="D121" s="60"/>
       <c r="E121" s="60"/>
@@ -7847,23 +7894,23 @@
       <c r="A122" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B122" s="76"/>
-      <c r="C122" s="77"/>
-      <c r="D122" s="77"/>
-      <c r="E122" s="77"/>
-      <c r="F122" s="77"/>
-      <c r="G122" s="78"/>
+      <c r="B122" s="83"/>
+      <c r="C122" s="84"/>
+      <c r="D122" s="84"/>
+      <c r="E122" s="84"/>
+      <c r="F122" s="84"/>
+      <c r="G122" s="85"/>
     </row>
     <row r="123" spans="1:7" s="52" customFormat="1" ht="42" customHeight="1">
       <c r="A123" s="53" t="s">
-        <v>139</v>
-      </c>
-      <c r="B123" s="82" t="s">
-        <v>135</v>
-      </c>
-      <c r="C123" s="83"/>
-      <c r="D123" s="83"/>
-      <c r="E123" s="84"/>
+        <v>138</v>
+      </c>
+      <c r="B123" s="80" t="s">
+        <v>134</v>
+      </c>
+      <c r="C123" s="81"/>
+      <c r="D123" s="81"/>
+      <c r="E123" s="82"/>
       <c r="F123" s="54" t="s">
         <v>28</v>
       </c>
@@ -7876,14 +7923,14 @@
       <c r="A124" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B124" s="79" t="s">
-        <v>118</v>
-      </c>
-      <c r="C124" s="80"/>
-      <c r="D124" s="80"/>
-      <c r="E124" s="80"/>
-      <c r="F124" s="80"/>
-      <c r="G124" s="81"/>
+      <c r="B124" s="77" t="s">
+        <v>117</v>
+      </c>
+      <c r="C124" s="78"/>
+      <c r="D124" s="78"/>
+      <c r="E124" s="78"/>
+      <c r="F124" s="78"/>
+      <c r="G124" s="79"/>
     </row>
     <row r="125" spans="1:7" s="52" customFormat="1">
       <c r="A125" s="57" t="s">
@@ -7916,7 +7963,7 @@
         <v>65</v>
       </c>
       <c r="C126" s="60" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D126" s="60"/>
       <c r="E126" s="60"/>
@@ -7953,7 +8000,7 @@
         <v>82</v>
       </c>
       <c r="D128" s="60" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E128" s="60"/>
       <c r="F128" s="61" t="s">
@@ -7966,10 +8013,10 @@
         <v>4</v>
       </c>
       <c r="B129" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="C129" s="60" t="s">
         <v>115</v>
-      </c>
-      <c r="C129" s="60" t="s">
-        <v>116</v>
       </c>
       <c r="D129" s="60"/>
       <c r="E129" s="60"/>
@@ -7983,10 +8030,10 @@
         <v>5</v>
       </c>
       <c r="B130" s="59" t="s">
+        <v>140</v>
+      </c>
+      <c r="C130" s="60" t="s">
         <v>141</v>
-      </c>
-      <c r="C130" s="60" t="s">
-        <v>142</v>
       </c>
       <c r="D130" s="60"/>
       <c r="E130" s="60"/>
@@ -7999,23 +8046,23 @@
       <c r="A131" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B131" s="76"/>
-      <c r="C131" s="77"/>
-      <c r="D131" s="77"/>
-      <c r="E131" s="77"/>
-      <c r="F131" s="77"/>
-      <c r="G131" s="78"/>
+      <c r="B131" s="83"/>
+      <c r="C131" s="84"/>
+      <c r="D131" s="84"/>
+      <c r="E131" s="84"/>
+      <c r="F131" s="84"/>
+      <c r="G131" s="85"/>
     </row>
     <row r="132" spans="1:7" s="52" customFormat="1" ht="42" customHeight="1">
       <c r="A132" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="B132" s="82" t="s">
-        <v>134</v>
-      </c>
-      <c r="C132" s="83"/>
-      <c r="D132" s="83"/>
-      <c r="E132" s="84"/>
+        <v>142</v>
+      </c>
+      <c r="B132" s="80" t="s">
+        <v>133</v>
+      </c>
+      <c r="C132" s="81"/>
+      <c r="D132" s="81"/>
+      <c r="E132" s="82"/>
       <c r="F132" s="54" t="s">
         <v>28</v>
       </c>
@@ -8028,14 +8075,14 @@
       <c r="A133" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B133" s="79" t="s">
-        <v>144</v>
-      </c>
-      <c r="C133" s="80"/>
-      <c r="D133" s="80"/>
-      <c r="E133" s="80"/>
-      <c r="F133" s="80"/>
-      <c r="G133" s="81"/>
+      <c r="B133" s="77" t="s">
+        <v>143</v>
+      </c>
+      <c r="C133" s="78"/>
+      <c r="D133" s="78"/>
+      <c r="E133" s="78"/>
+      <c r="F133" s="78"/>
+      <c r="G133" s="79"/>
     </row>
     <row r="134" spans="1:7" s="52" customFormat="1">
       <c r="A134" s="57" t="s">
@@ -8068,7 +8115,7 @@
         <v>65</v>
       </c>
       <c r="C135" s="60" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D135" s="60"/>
       <c r="E135" s="60"/>
@@ -8082,10 +8129,10 @@
         <v>2</v>
       </c>
       <c r="B136" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="C136" s="60" t="s">
         <v>145</v>
-      </c>
-      <c r="C136" s="60" t="s">
-        <v>146</v>
       </c>
       <c r="D136" s="60"/>
       <c r="E136" s="60"/>
@@ -8098,23 +8145,23 @@
       <c r="A137" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B137" s="76"/>
-      <c r="C137" s="77"/>
-      <c r="D137" s="77"/>
-      <c r="E137" s="77"/>
-      <c r="F137" s="77"/>
-      <c r="G137" s="78"/>
+      <c r="B137" s="83"/>
+      <c r="C137" s="84"/>
+      <c r="D137" s="84"/>
+      <c r="E137" s="84"/>
+      <c r="F137" s="84"/>
+      <c r="G137" s="85"/>
     </row>
     <row r="138" spans="1:7" s="52" customFormat="1" ht="42" customHeight="1">
       <c r="A138" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="B138" s="80" t="s">
         <v>147</v>
       </c>
-      <c r="B138" s="82" t="s">
-        <v>148</v>
-      </c>
-      <c r="C138" s="83"/>
-      <c r="D138" s="83"/>
-      <c r="E138" s="84"/>
+      <c r="C138" s="81"/>
+      <c r="D138" s="81"/>
+      <c r="E138" s="82"/>
       <c r="F138" s="54" t="s">
         <v>28</v>
       </c>
@@ -8127,14 +8174,14 @@
       <c r="A139" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B139" s="92" t="s">
-        <v>149</v>
-      </c>
-      <c r="C139" s="93"/>
-      <c r="D139" s="93"/>
-      <c r="E139" s="93"/>
-      <c r="F139" s="93"/>
-      <c r="G139" s="94"/>
+      <c r="B139" s="93" t="s">
+        <v>148</v>
+      </c>
+      <c r="C139" s="94"/>
+      <c r="D139" s="94"/>
+      <c r="E139" s="94"/>
+      <c r="F139" s="94"/>
+      <c r="G139" s="95"/>
     </row>
     <row r="140" spans="1:7" s="52" customFormat="1">
       <c r="A140" s="57" t="s">
@@ -8167,7 +8214,7 @@
         <v>65</v>
       </c>
       <c r="C141" s="60" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D141" s="60"/>
       <c r="E141" s="60"/>
@@ -8181,10 +8228,10 @@
         <v>2</v>
       </c>
       <c r="B142" s="59" t="s">
+        <v>149</v>
+      </c>
+      <c r="C142" s="60" t="s">
         <v>150</v>
-      </c>
-      <c r="C142" s="60" t="s">
-        <v>151</v>
       </c>
       <c r="D142" s="60"/>
       <c r="E142" s="60"/>
@@ -8198,13 +8245,13 @@
         <v>3</v>
       </c>
       <c r="B143" s="59" t="s">
+        <v>152</v>
+      </c>
+      <c r="C143" s="60" t="s">
         <v>153</v>
       </c>
-      <c r="C143" s="60" t="s">
-        <v>154</v>
-      </c>
       <c r="D143" s="60" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E143" s="60"/>
       <c r="F143" s="61" t="s">
@@ -8216,23 +8263,23 @@
       <c r="A144" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B144" s="76"/>
-      <c r="C144" s="77"/>
-      <c r="D144" s="77"/>
-      <c r="E144" s="77"/>
-      <c r="F144" s="77"/>
-      <c r="G144" s="78"/>
-    </row>
-    <row r="145" spans="1:7" s="52" customFormat="1" ht="42" customHeight="1">
+      <c r="B144" s="83"/>
+      <c r="C144" s="84"/>
+      <c r="D144" s="84"/>
+      <c r="E144" s="84"/>
+      <c r="F144" s="84"/>
+      <c r="G144" s="85"/>
+    </row>
+    <row r="145" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A145" s="53" t="s">
-        <v>155</v>
-      </c>
-      <c r="B145" s="82" t="s">
-        <v>129</v>
-      </c>
-      <c r="C145" s="83"/>
-      <c r="D145" s="83"/>
-      <c r="E145" s="84"/>
+        <v>154</v>
+      </c>
+      <c r="B145" s="80" t="s">
+        <v>128</v>
+      </c>
+      <c r="C145" s="81"/>
+      <c r="D145" s="81"/>
+      <c r="E145" s="82"/>
       <c r="F145" s="54" t="s">
         <v>28</v>
       </c>
@@ -8245,14 +8292,14 @@
       <c r="A146" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B146" s="92" t="s">
-        <v>156</v>
-      </c>
-      <c r="C146" s="93"/>
-      <c r="D146" s="93"/>
-      <c r="E146" s="93"/>
-      <c r="F146" s="93"/>
-      <c r="G146" s="94"/>
+      <c r="B146" s="93" t="s">
+        <v>155</v>
+      </c>
+      <c r="C146" s="94"/>
+      <c r="D146" s="94"/>
+      <c r="E146" s="94"/>
+      <c r="F146" s="94"/>
+      <c r="G146" s="95"/>
     </row>
     <row r="147" spans="1:7" s="52" customFormat="1">
       <c r="A147" s="57" t="s">
@@ -8285,7 +8332,7 @@
         <v>65</v>
       </c>
       <c r="C148" s="60" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D148" s="60"/>
       <c r="E148" s="60"/>
@@ -8322,7 +8369,7 @@
         <v>82</v>
       </c>
       <c r="D150" s="60" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E150" s="60"/>
       <c r="F150" s="61" t="s">
@@ -8338,10 +8385,10 @@
         <v>84</v>
       </c>
       <c r="C151" s="60" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D151" s="60" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E151" s="60"/>
       <c r="F151" s="61" t="s">
@@ -8354,10 +8401,10 @@
         <v>5</v>
       </c>
       <c r="B152" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="C152" s="60" t="s">
         <v>115</v>
-      </c>
-      <c r="C152" s="60" t="s">
-        <v>116</v>
       </c>
       <c r="D152" s="60"/>
       <c r="E152" s="60"/>
@@ -8371,10 +8418,10 @@
         <v>6</v>
       </c>
       <c r="B153" s="59" t="s">
+        <v>159</v>
+      </c>
+      <c r="C153" s="60" t="s">
         <v>160</v>
-      </c>
-      <c r="C153" s="60" t="s">
-        <v>161</v>
       </c>
       <c r="D153" s="60"/>
       <c r="E153" s="60"/>
@@ -8387,75 +8434,130 @@
       <c r="A154" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B154" s="76"/>
-      <c r="C154" s="77"/>
-      <c r="D154" s="77"/>
-      <c r="E154" s="77"/>
-      <c r="F154" s="77"/>
-      <c r="G154" s="78"/>
-    </row>
-    <row r="155" spans="1:7">
-      <c r="A155"/>
-      <c r="B155"/>
-      <c r="C155"/>
-      <c r="D155"/>
-      <c r="E155"/>
-      <c r="F155"/>
-      <c r="G155"/>
-    </row>
-    <row r="156" spans="1:7">
-      <c r="A156"/>
-      <c r="B156"/>
-      <c r="C156"/>
-      <c r="D156"/>
-      <c r="E156"/>
-      <c r="F156"/>
-      <c r="G156"/>
-    </row>
-    <row r="157" spans="1:7">
-      <c r="A157"/>
-      <c r="B157"/>
-      <c r="C157"/>
-      <c r="D157"/>
-      <c r="E157"/>
-      <c r="F157"/>
-      <c r="G157"/>
-    </row>
-    <row r="158" spans="1:7">
-      <c r="A158"/>
-      <c r="B158"/>
-      <c r="C158"/>
-      <c r="D158"/>
-      <c r="E158"/>
-      <c r="F158"/>
-      <c r="G158"/>
-    </row>
-    <row r="159" spans="1:7">
-      <c r="A159"/>
-      <c r="B159"/>
-      <c r="C159"/>
-      <c r="D159"/>
-      <c r="E159"/>
-      <c r="F159"/>
-      <c r="G159"/>
-    </row>
-    <row r="160" spans="1:7">
-      <c r="A160"/>
-      <c r="B160"/>
-      <c r="C160"/>
-      <c r="D160"/>
-      <c r="E160"/>
-      <c r="F160"/>
-      <c r="G160"/>
-    </row>
-    <row r="161" spans="1:7">
-      <c r="A161"/>
-      <c r="B161"/>
-      <c r="C161"/>
-      <c r="D161"/>
-      <c r="E161"/>
-      <c r="F161"/>
-      <c r="G161"/>
+      <c r="B154" s="83"/>
+      <c r="C154" s="84"/>
+      <c r="D154" s="84"/>
+      <c r="E154" s="84"/>
+      <c r="F154" s="84"/>
+      <c r="G154" s="85"/>
+    </row>
+    <row r="155" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A155" s="53" t="s">
+        <v>167</v>
+      </c>
+      <c r="B155" s="80" t="s">
+        <v>166</v>
+      </c>
+      <c r="C155" s="81"/>
+      <c r="D155" s="81"/>
+      <c r="E155" s="82"/>
+      <c r="F155" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="G155" s="55" t="str">
+        <f>IF(COUNTIF(F158:F160,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F158:F160,"Fail")&gt;0,"Fail",IF(COUNTIF(F158:F160,"")=0,"Pass","Not Executed")))</f>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" s="52" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A156" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="B156" s="93" t="s">
+        <v>155</v>
+      </c>
+      <c r="C156" s="94"/>
+      <c r="D156" s="94"/>
+      <c r="E156" s="94"/>
+      <c r="F156" s="94"/>
+      <c r="G156" s="95"/>
+    </row>
+    <row r="157" spans="1:7" s="52" customFormat="1">
+      <c r="A157" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="B157" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="C157" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="D157" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="E157" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="F157" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="G157" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" s="52" customFormat="1" ht="165">
+      <c r="A158" s="58">
+        <v>1</v>
+      </c>
+      <c r="B158" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="C158" s="60" t="s">
+        <v>169</v>
+      </c>
+      <c r="D158" s="60"/>
+      <c r="E158" s="60"/>
+      <c r="F158" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="G158" s="62"/>
+    </row>
+    <row r="159" spans="1:7" s="52" customFormat="1" ht="60">
+      <c r="A159" s="58">
+        <v>2</v>
+      </c>
+      <c r="B159" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="C159" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="D159" s="60"/>
+      <c r="E159" s="60"/>
+      <c r="F159" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="G159" s="62"/>
+    </row>
+    <row r="160" spans="1:7" s="52" customFormat="1" ht="50.25" customHeight="1">
+      <c r="A160" s="58">
+        <v>3</v>
+      </c>
+      <c r="B160" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="C160" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="D160" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="E160" s="60"/>
+      <c r="F160" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="G160" s="62"/>
+    </row>
+    <row r="161" spans="1:7" s="64" customFormat="1">
+      <c r="A161" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="B161" s="83"/>
+      <c r="C161" s="84"/>
+      <c r="D161" s="84"/>
+      <c r="E161" s="84"/>
+      <c r="F161" s="84"/>
+      <c r="G161" s="85"/>
     </row>
     <row r="162" spans="1:7">
       <c r="A162"/>
@@ -8619,7 +8721,7 @@
       <c r="F179"/>
       <c r="G179"/>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" ht="30.95" customHeight="1">
       <c r="A180"/>
       <c r="B180"/>
       <c r="C180"/>
@@ -8646,7 +8748,7 @@
       <c r="F182"/>
       <c r="G182"/>
     </row>
-    <row r="183" spans="1:7" ht="30.95" customHeight="1">
+    <row r="183" spans="1:7">
       <c r="A183"/>
       <c r="B183"/>
       <c r="C183"/>
@@ -11166,34 +11268,31 @@
       <c r="F462"/>
       <c r="G462"/>
     </row>
-    <row r="463" spans="1:7">
-      <c r="A463"/>
-      <c r="B463"/>
-      <c r="C463"/>
-      <c r="D463"/>
-      <c r="E463"/>
-      <c r="F463"/>
-      <c r="G463"/>
-    </row>
-    <row r="464" spans="1:7">
-      <c r="A464"/>
-      <c r="B464"/>
-      <c r="C464"/>
-      <c r="D464"/>
-      <c r="E464"/>
-      <c r="F464"/>
-      <c r="G464"/>
-    </row>
-    <row r="465" spans="1:7">
-      <c r="A465"/>
-      <c r="B465"/>
-      <c r="C465"/>
-      <c r="D465"/>
-      <c r="E465"/>
-      <c r="F465"/>
-      <c r="G465"/>
-    </row>
-    <row r="466" spans="1:7" ht="15.75">
+    <row r="463" spans="1:7" ht="15.75">
+      <c r="A463" s="11"/>
+      <c r="B463" s="13"/>
+      <c r="C463" s="12"/>
+      <c r="D463" s="15"/>
+      <c r="E463" s="16"/>
+      <c r="F463" s="21"/>
+    </row>
+    <row r="464" spans="1:7" ht="15.75">
+      <c r="A464" s="11"/>
+      <c r="B464" s="13"/>
+      <c r="C464" s="12"/>
+      <c r="D464" s="15"/>
+      <c r="E464" s="16"/>
+      <c r="F464" s="21"/>
+    </row>
+    <row r="465" spans="1:6" ht="15.75">
+      <c r="A465" s="11"/>
+      <c r="B465" s="13"/>
+      <c r="C465" s="12"/>
+      <c r="D465" s="15"/>
+      <c r="E465" s="16"/>
+      <c r="F465" s="21"/>
+    </row>
+    <row r="466" spans="1:6" ht="15.75">
       <c r="A466" s="11"/>
       <c r="B466" s="13"/>
       <c r="C466" s="12"/>
@@ -11201,7 +11300,7 @@
       <c r="E466" s="16"/>
       <c r="F466" s="21"/>
     </row>
-    <row r="467" spans="1:7" ht="15.75">
+    <row r="467" spans="1:6" ht="15.75">
       <c r="A467" s="11"/>
       <c r="B467" s="13"/>
       <c r="C467" s="12"/>
@@ -11209,7 +11308,7 @@
       <c r="E467" s="16"/>
       <c r="F467" s="21"/>
     </row>
-    <row r="468" spans="1:7" ht="15.75">
+    <row r="468" spans="1:6" ht="15.75">
       <c r="A468" s="11"/>
       <c r="B468" s="13"/>
       <c r="C468" s="12"/>
@@ -11217,7 +11316,7 @@
       <c r="E468" s="16"/>
       <c r="F468" s="21"/>
     </row>
-    <row r="469" spans="1:7" ht="15.75">
+    <row r="469" spans="1:6" ht="15.75">
       <c r="A469" s="11"/>
       <c r="B469" s="13"/>
       <c r="C469" s="12"/>
@@ -11225,7 +11324,7 @@
       <c r="E469" s="16"/>
       <c r="F469" s="21"/>
     </row>
-    <row r="470" spans="1:7" ht="15.75">
+    <row r="470" spans="1:6" ht="15.75">
       <c r="A470" s="11"/>
       <c r="B470" s="13"/>
       <c r="C470" s="12"/>
@@ -11233,7 +11332,7 @@
       <c r="E470" s="16"/>
       <c r="F470" s="21"/>
     </row>
-    <row r="471" spans="1:7" ht="15.75">
+    <row r="471" spans="1:6" ht="15.75">
       <c r="A471" s="11"/>
       <c r="B471" s="13"/>
       <c r="C471" s="12"/>
@@ -11241,7 +11340,7 @@
       <c r="E471" s="16"/>
       <c r="F471" s="21"/>
     </row>
-    <row r="472" spans="1:7" ht="15.75">
+    <row r="472" spans="1:6" ht="15.75">
       <c r="A472" s="11"/>
       <c r="B472" s="13"/>
       <c r="C472" s="12"/>
@@ -11249,7 +11348,7 @@
       <c r="E472" s="16"/>
       <c r="F472" s="21"/>
     </row>
-    <row r="473" spans="1:7" ht="15.75">
+    <row r="473" spans="1:6" ht="15.75">
       <c r="A473" s="11"/>
       <c r="B473" s="13"/>
       <c r="C473" s="12"/>
@@ -11257,7 +11356,7 @@
       <c r="E473" s="16"/>
       <c r="F473" s="21"/>
     </row>
-    <row r="474" spans="1:7" ht="15.75">
+    <row r="474" spans="1:6" ht="15.75">
       <c r="A474" s="11"/>
       <c r="B474" s="13"/>
       <c r="C474" s="12"/>
@@ -11265,7 +11364,7 @@
       <c r="E474" s="16"/>
       <c r="F474" s="21"/>
     </row>
-    <row r="475" spans="1:7" ht="15.75">
+    <row r="475" spans="1:6" ht="15.75">
       <c r="A475" s="11"/>
       <c r="B475" s="13"/>
       <c r="C475" s="12"/>
@@ -11273,7 +11372,7 @@
       <c r="E475" s="16"/>
       <c r="F475" s="21"/>
     </row>
-    <row r="476" spans="1:7" ht="15.75">
+    <row r="476" spans="1:6" ht="15.75">
       <c r="A476" s="11"/>
       <c r="B476" s="13"/>
       <c r="C476" s="12"/>
@@ -11281,7 +11380,7 @@
       <c r="E476" s="16"/>
       <c r="F476" s="21"/>
     </row>
-    <row r="477" spans="1:7" ht="15.75">
+    <row r="477" spans="1:6" ht="15.75">
       <c r="A477" s="11"/>
       <c r="B477" s="13"/>
       <c r="C477" s="12"/>
@@ -11289,7 +11388,7 @@
       <c r="E477" s="16"/>
       <c r="F477" s="21"/>
     </row>
-    <row r="478" spans="1:7" ht="15.75">
+    <row r="478" spans="1:6" ht="15.75">
       <c r="A478" s="11"/>
       <c r="B478" s="13"/>
       <c r="C478" s="12"/>
@@ -11297,7 +11396,7 @@
       <c r="E478" s="16"/>
       <c r="F478" s="21"/>
     </row>
-    <row r="479" spans="1:7" ht="15.75">
+    <row r="479" spans="1:6" ht="15.75">
       <c r="A479" s="11"/>
       <c r="B479" s="13"/>
       <c r="C479" s="12"/>
@@ -11305,7 +11404,7 @@
       <c r="E479" s="16"/>
       <c r="F479" s="21"/>
     </row>
-    <row r="480" spans="1:7" ht="15.75">
+    <row r="480" spans="1:6" ht="15.75">
       <c r="A480" s="11"/>
       <c r="B480" s="13"/>
       <c r="C480" s="12"/>
@@ -15313,35 +15412,16 @@
       <c r="E980" s="16"/>
       <c r="F980" s="21"/>
     </row>
-    <row r="981" spans="1:6" ht="15.75">
-      <c r="A981" s="11"/>
-      <c r="B981" s="13"/>
-      <c r="C981" s="12"/>
-      <c r="D981" s="15"/>
-      <c r="E981" s="16"/>
-      <c r="F981" s="21"/>
-    </row>
-    <row r="982" spans="1:6" ht="15.75">
-      <c r="A982" s="11"/>
-      <c r="B982" s="13"/>
-      <c r="C982" s="12"/>
-      <c r="D982" s="15"/>
-      <c r="E982" s="16"/>
-      <c r="F982" s="21"/>
-    </row>
-    <row r="983" spans="1:6" ht="15.75">
-      <c r="A983" s="11"/>
-      <c r="B983" s="13"/>
-      <c r="C983" s="12"/>
-      <c r="D983" s="15"/>
-      <c r="E983" s="16"/>
-      <c r="F983" s="21"/>
-    </row>
   </sheetData>
-  <mergeCells count="58">
+  <mergeCells count="61">
+    <mergeCell ref="B155:E155"/>
+    <mergeCell ref="B156:G156"/>
+    <mergeCell ref="B161:G161"/>
     <mergeCell ref="B139:G139"/>
     <mergeCell ref="B145:E145"/>
     <mergeCell ref="B146:G146"/>
+    <mergeCell ref="B144:G144"/>
+    <mergeCell ref="B154:G154"/>
     <mergeCell ref="B123:E123"/>
     <mergeCell ref="B124:G124"/>
     <mergeCell ref="B132:E132"/>
@@ -15349,39 +15429,36 @@
     <mergeCell ref="B138:E138"/>
     <mergeCell ref="B131:G131"/>
     <mergeCell ref="B137:G137"/>
-    <mergeCell ref="B144:G144"/>
     <mergeCell ref="B114:E114"/>
     <mergeCell ref="B115:G115"/>
     <mergeCell ref="B122:G122"/>
     <mergeCell ref="B98:G98"/>
     <mergeCell ref="B104:G104"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="B96:G96"/>
     <mergeCell ref="B97:E97"/>
     <mergeCell ref="B80:E80"/>
     <mergeCell ref="B81:G81"/>
     <mergeCell ref="B88:G88"/>
     <mergeCell ref="B89:E89"/>
     <mergeCell ref="B90:G90"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B73:G73"/>
-    <mergeCell ref="B79:G79"/>
-    <mergeCell ref="B96:G96"/>
-    <mergeCell ref="B58:E58"/>
     <mergeCell ref="B59:G59"/>
     <mergeCell ref="B64:G64"/>
     <mergeCell ref="B65:E65"/>
     <mergeCell ref="B66:G66"/>
-    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B71:G71"/>
     <mergeCell ref="B49:G49"/>
     <mergeCell ref="B50:E50"/>
     <mergeCell ref="B51:G51"/>
     <mergeCell ref="B57:G57"/>
+    <mergeCell ref="B58:E58"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="A16:G16"/>
     <mergeCell ref="A17:G17"/>
     <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B154:G154"/>
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="B105:E105"/>
     <mergeCell ref="B106:G106"/>
@@ -15397,9 +15474,10 @@
     <mergeCell ref="B37:G37"/>
     <mergeCell ref="B42:G42"/>
     <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B44:G44"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" showErrorMessage="1" promptTitle="Valid values include:" prompt="_x000a_" sqref="F466:F468 F39:F41 F473:F479 F692:F694 F682:F687 F484:F493 F498:F501 F506:F511 F516:F524 F529:F538 F543:F553 F558:F568 F584:F590 F612:F614 F573:F579 F595:F601 F606:F607 F619:F625 F630:F636 F652:F654 F641:F647 F659:F662 F667:F669 F674:F677 F26:F27 F61:F63 F21 F46:F48 F32:F34 F53:F56 F68:F70 F75:F78 F83:F87 F92:F95 F100:F103 F108:F112 F117:F121 F148:F153 F126:F130 F135:F136 F141:F143" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" showErrorMessage="1" promptTitle="Valid values include:" prompt="_x000a_" sqref="F463:F465 F39:F41 F470:F476 F689:F691 F679:F684 F481:F490 F495:F498 F503:F508 F513:F521 F526:F535 F540:F550 F555:F565 F581:F587 F609:F611 F570:F576 F592:F598 F603:F604 F616:F622 F627:F633 F649:F651 F638:F644 F656:F659 F664:F666 F671:F674 F26:F27 F61:F63 F21 F46:F48 F32:F34 F53:F56 F68:F70 F75:F78 F83:F87 F92:F95 F100:F103 F108:F112 F117:F121 F148:F153 F126:F130 F135:F136 F141:F143 F158:F160" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Pass, Fail, Blocked"</formula1>
     </dataValidation>
   </dataValidations>

--- a/TCS_NEWUI_FieldOptions.xlsx
+++ b/TCS_NEWUI_FieldOptions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sumit Rana\Projects\AdIntel- New\Test Cases\TC Repository\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sumit Rana\Projects\AdIntel- New\Test Cases\TC_Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C88B1E-BD86-455C-A0FE-2705E8B44F86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94AECDD-E619-43C1-A022-A892046FEC18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="815" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="815" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="5" r:id="rId1"/>
@@ -2304,6 +2304,33 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="147" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="39" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="40" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="41" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="39" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="40" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="41" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="39" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="40" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="41" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="39" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2314,24 +2341,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="31" borderId="39" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="31" borderId="40" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="31" borderId="41" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="39" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="40" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="41" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="31" borderId="39" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="29" borderId="36" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2351,15 +2360,6 @@
     </xf>
     <xf numFmtId="0" fontId="35" fillId="30" borderId="38" xfId="145" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="39" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="40" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="41" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="154">
@@ -4405,8 +4405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G98"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5270,7 +5270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G980"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -5937,10 +5937,10 @@
       </c>
       <c r="D2"/>
       <c r="E2" s="11"/>
-      <c r="F2" s="87" t="s">
+      <c r="F2" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="88"/>
+      <c r="G2" s="91"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="11"/>
@@ -6001,10 +6001,10 @@
       <c r="C6" s="39"/>
       <c r="D6"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="89" t="s">
+      <c r="F6" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="90"/>
+      <c r="G6" s="93"/>
     </row>
     <row r="7" spans="1:7" ht="19.5" customHeight="1" thickBot="1">
       <c r="A7" s="11"/>
@@ -6135,37 +6135,37 @@
       <c r="G15" s="20"/>
     </row>
     <row r="16" spans="1:7" s="52" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A16" s="91" t="s">
+      <c r="A16" s="94" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="91"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="94"/>
     </row>
     <row r="17" spans="1:7" s="52" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A17" s="92" t="s">
+      <c r="A17" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="92"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="95"/>
     </row>
     <row r="18" spans="1:7" s="52" customFormat="1">
       <c r="A18" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="86" t="s">
+      <c r="B18" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="82"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="79"/>
       <c r="F18" s="54" t="s">
         <v>28</v>
       </c>
@@ -6178,14 +6178,14 @@
       <c r="A19" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="77" t="s">
+      <c r="B19" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="79"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="88"/>
     </row>
     <row r="20" spans="1:7" s="52" customFormat="1">
       <c r="A20" s="57" t="s">
@@ -6242,12 +6242,12 @@
       <c r="A23" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="86" t="s">
+      <c r="B23" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="82"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="79"/>
       <c r="F23" s="54" t="s">
         <v>28</v>
       </c>
@@ -6260,14 +6260,14 @@
       <c r="A24" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="77" t="s">
+      <c r="B24" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="79"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="88"/>
     </row>
     <row r="25" spans="1:7" s="52" customFormat="1">
       <c r="A25" s="57" t="s">
@@ -6341,12 +6341,12 @@
       <c r="A29" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="86" t="s">
+      <c r="B29" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="82"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="79"/>
       <c r="F29" s="54" t="s">
         <v>28</v>
       </c>
@@ -6359,14 +6359,14 @@
       <c r="A30" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="77" t="s">
+      <c r="B30" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="78"/>
-      <c r="D30" s="78"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="79"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="87"/>
+      <c r="G30" s="88"/>
     </row>
     <row r="31" spans="1:7" s="52" customFormat="1">
       <c r="A31" s="57" t="s">
@@ -6457,12 +6457,12 @@
       <c r="A36" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="B36" s="86" t="s">
+      <c r="B36" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="81"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="82"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="78"/>
+      <c r="E36" s="79"/>
       <c r="F36" s="54" t="s">
         <v>28</v>
       </c>
@@ -6475,14 +6475,14 @@
       <c r="A37" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="77" t="s">
+      <c r="B37" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="78"/>
-      <c r="D37" s="78"/>
-      <c r="E37" s="78"/>
-      <c r="F37" s="78"/>
-      <c r="G37" s="79"/>
+      <c r="C37" s="87"/>
+      <c r="D37" s="87"/>
+      <c r="E37" s="87"/>
+      <c r="F37" s="87"/>
+      <c r="G37" s="88"/>
     </row>
     <row r="38" spans="1:7" s="52" customFormat="1">
       <c r="A38" s="57" t="s">
@@ -6573,12 +6573,12 @@
       <c r="A43" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="86" t="s">
+      <c r="B43" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="81"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="82"/>
+      <c r="C43" s="78"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="79"/>
       <c r="F43" s="54" t="s">
         <v>28</v>
       </c>
@@ -6591,14 +6591,14 @@
       <c r="A44" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B44" s="77" t="s">
+      <c r="B44" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="C44" s="78"/>
-      <c r="D44" s="78"/>
-      <c r="E44" s="78"/>
-      <c r="F44" s="78"/>
-      <c r="G44" s="79"/>
+      <c r="C44" s="87"/>
+      <c r="D44" s="87"/>
+      <c r="E44" s="87"/>
+      <c r="F44" s="87"/>
+      <c r="G44" s="88"/>
     </row>
     <row r="45" spans="1:7" s="52" customFormat="1">
       <c r="A45" s="57" t="s">
@@ -6689,12 +6689,12 @@
       <c r="A50" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="B50" s="86" t="s">
+      <c r="B50" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="C50" s="81"/>
-      <c r="D50" s="81"/>
-      <c r="E50" s="82"/>
+      <c r="C50" s="78"/>
+      <c r="D50" s="78"/>
+      <c r="E50" s="79"/>
       <c r="F50" s="54" t="s">
         <v>28</v>
       </c>
@@ -6707,14 +6707,14 @@
       <c r="A51" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B51" s="77" t="s">
+      <c r="B51" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="C51" s="78"/>
-      <c r="D51" s="78"/>
-      <c r="E51" s="78"/>
-      <c r="F51" s="78"/>
-      <c r="G51" s="79"/>
+      <c r="C51" s="87"/>
+      <c r="D51" s="87"/>
+      <c r="E51" s="87"/>
+      <c r="F51" s="87"/>
+      <c r="G51" s="88"/>
     </row>
     <row r="52" spans="1:7" s="52" customFormat="1">
       <c r="A52" s="57" t="s">
@@ -6822,12 +6822,12 @@
       <c r="A58" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="B58" s="86" t="s">
+      <c r="B58" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="C58" s="81"/>
-      <c r="D58" s="81"/>
-      <c r="E58" s="82"/>
+      <c r="C58" s="78"/>
+      <c r="D58" s="78"/>
+      <c r="E58" s="79"/>
       <c r="F58" s="54" t="s">
         <v>28</v>
       </c>
@@ -6840,14 +6840,14 @@
       <c r="A59" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B59" s="77" t="s">
+      <c r="B59" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="C59" s="78"/>
-      <c r="D59" s="78"/>
-      <c r="E59" s="78"/>
-      <c r="F59" s="78"/>
-      <c r="G59" s="79"/>
+      <c r="C59" s="87"/>
+      <c r="D59" s="87"/>
+      <c r="E59" s="87"/>
+      <c r="F59" s="87"/>
+      <c r="G59" s="88"/>
     </row>
     <row r="60" spans="1:7" s="52" customFormat="1">
       <c r="A60" s="57" t="s">
@@ -6936,12 +6936,12 @@
       <c r="A65" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="B65" s="86" t="s">
+      <c r="B65" s="89" t="s">
         <v>100</v>
       </c>
-      <c r="C65" s="81"/>
-      <c r="D65" s="81"/>
-      <c r="E65" s="82"/>
+      <c r="C65" s="78"/>
+      <c r="D65" s="78"/>
+      <c r="E65" s="79"/>
       <c r="F65" s="54" t="s">
         <v>28</v>
       </c>
@@ -6954,14 +6954,14 @@
       <c r="A66" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B66" s="77" t="s">
+      <c r="B66" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="C66" s="78"/>
-      <c r="D66" s="78"/>
-      <c r="E66" s="78"/>
-      <c r="F66" s="78"/>
-      <c r="G66" s="79"/>
+      <c r="C66" s="87"/>
+      <c r="D66" s="87"/>
+      <c r="E66" s="87"/>
+      <c r="F66" s="87"/>
+      <c r="G66" s="88"/>
     </row>
     <row r="67" spans="1:7" s="52" customFormat="1">
       <c r="A67" s="57" t="s">
@@ -7052,12 +7052,12 @@
       <c r="A72" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="B72" s="86" t="s">
+      <c r="B72" s="89" t="s">
         <v>94</v>
       </c>
-      <c r="C72" s="81"/>
-      <c r="D72" s="81"/>
-      <c r="E72" s="82"/>
+      <c r="C72" s="78"/>
+      <c r="D72" s="78"/>
+      <c r="E72" s="79"/>
       <c r="F72" s="54" t="s">
         <v>28</v>
       </c>
@@ -7070,14 +7070,14 @@
       <c r="A73" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B73" s="77" t="s">
+      <c r="B73" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="C73" s="78"/>
-      <c r="D73" s="78"/>
-      <c r="E73" s="78"/>
-      <c r="F73" s="78"/>
-      <c r="G73" s="79"/>
+      <c r="C73" s="87"/>
+      <c r="D73" s="87"/>
+      <c r="E73" s="87"/>
+      <c r="F73" s="87"/>
+      <c r="G73" s="88"/>
     </row>
     <row r="74" spans="1:7" s="52" customFormat="1">
       <c r="A74" s="57" t="s">
@@ -7185,12 +7185,12 @@
       <c r="A80" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="B80" s="86" t="s">
+      <c r="B80" s="89" t="s">
         <v>107</v>
       </c>
-      <c r="C80" s="81"/>
-      <c r="D80" s="81"/>
-      <c r="E80" s="82"/>
+      <c r="C80" s="78"/>
+      <c r="D80" s="78"/>
+      <c r="E80" s="79"/>
       <c r="F80" s="54" t="s">
         <v>28</v>
       </c>
@@ -7203,14 +7203,14 @@
       <c r="A81" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B81" s="77" t="s">
+      <c r="B81" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="C81" s="78"/>
-      <c r="D81" s="78"/>
-      <c r="E81" s="78"/>
-      <c r="F81" s="78"/>
-      <c r="G81" s="79"/>
+      <c r="C81" s="87"/>
+      <c r="D81" s="87"/>
+      <c r="E81" s="87"/>
+      <c r="F81" s="87"/>
+      <c r="G81" s="88"/>
     </row>
     <row r="82" spans="1:7" s="52" customFormat="1">
       <c r="A82" s="57" t="s">
@@ -7335,12 +7335,12 @@
       <c r="A89" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="B89" s="86" t="s">
+      <c r="B89" s="89" t="s">
         <v>112</v>
       </c>
-      <c r="C89" s="81"/>
-      <c r="D89" s="81"/>
-      <c r="E89" s="82"/>
+      <c r="C89" s="78"/>
+      <c r="D89" s="78"/>
+      <c r="E89" s="79"/>
       <c r="F89" s="54" t="s">
         <v>28</v>
       </c>
@@ -7353,14 +7353,14 @@
       <c r="A90" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B90" s="77" t="s">
+      <c r="B90" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="C90" s="78"/>
-      <c r="D90" s="78"/>
-      <c r="E90" s="78"/>
-      <c r="F90" s="78"/>
-      <c r="G90" s="79"/>
+      <c r="C90" s="87"/>
+      <c r="D90" s="87"/>
+      <c r="E90" s="87"/>
+      <c r="F90" s="87"/>
+      <c r="G90" s="88"/>
     </row>
     <row r="91" spans="1:7" s="52" customFormat="1">
       <c r="A91" s="57" t="s">
@@ -7468,12 +7468,12 @@
       <c r="A97" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="B97" s="86" t="s">
+      <c r="B97" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="C97" s="81"/>
-      <c r="D97" s="81"/>
-      <c r="E97" s="82"/>
+      <c r="C97" s="78"/>
+      <c r="D97" s="78"/>
+      <c r="E97" s="79"/>
       <c r="F97" s="54" t="s">
         <v>28</v>
       </c>
@@ -7486,14 +7486,14 @@
       <c r="A98" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B98" s="77" t="s">
+      <c r="B98" s="86" t="s">
         <v>117</v>
       </c>
-      <c r="C98" s="78"/>
-      <c r="D98" s="78"/>
-      <c r="E98" s="78"/>
-      <c r="F98" s="78"/>
-      <c r="G98" s="79"/>
+      <c r="C98" s="87"/>
+      <c r="D98" s="87"/>
+      <c r="E98" s="87"/>
+      <c r="F98" s="87"/>
+      <c r="G98" s="88"/>
     </row>
     <row r="99" spans="1:7" s="52" customFormat="1">
       <c r="A99" s="57" t="s">
@@ -7603,12 +7603,12 @@
       <c r="A105" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="B105" s="80" t="s">
+      <c r="B105" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="C105" s="81"/>
-      <c r="D105" s="81"/>
-      <c r="E105" s="82"/>
+      <c r="C105" s="78"/>
+      <c r="D105" s="78"/>
+      <c r="E105" s="79"/>
       <c r="F105" s="54" t="s">
         <v>28</v>
       </c>
@@ -7621,14 +7621,14 @@
       <c r="A106" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B106" s="77" t="s">
+      <c r="B106" s="86" t="s">
         <v>117</v>
       </c>
-      <c r="C106" s="78"/>
-      <c r="D106" s="78"/>
-      <c r="E106" s="78"/>
-      <c r="F106" s="78"/>
-      <c r="G106" s="79"/>
+      <c r="C106" s="87"/>
+      <c r="D106" s="87"/>
+      <c r="E106" s="87"/>
+      <c r="F106" s="87"/>
+      <c r="G106" s="88"/>
     </row>
     <row r="107" spans="1:7" s="52" customFormat="1">
       <c r="A107" s="57" t="s">
@@ -7753,12 +7753,12 @@
       <c r="A114" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="B114" s="80" t="s">
+      <c r="B114" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="C114" s="81"/>
-      <c r="D114" s="81"/>
-      <c r="E114" s="82"/>
+      <c r="C114" s="78"/>
+      <c r="D114" s="78"/>
+      <c r="E114" s="79"/>
       <c r="F114" s="54" t="s">
         <v>28</v>
       </c>
@@ -7771,14 +7771,14 @@
       <c r="A115" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B115" s="77" t="s">
+      <c r="B115" s="86" t="s">
         <v>117</v>
       </c>
-      <c r="C115" s="78"/>
-      <c r="D115" s="78"/>
-      <c r="E115" s="78"/>
-      <c r="F115" s="78"/>
-      <c r="G115" s="79"/>
+      <c r="C115" s="87"/>
+      <c r="D115" s="87"/>
+      <c r="E115" s="87"/>
+      <c r="F115" s="87"/>
+      <c r="G115" s="88"/>
     </row>
     <row r="116" spans="1:7" s="52" customFormat="1">
       <c r="A116" s="57" t="s">
@@ -7905,12 +7905,12 @@
       <c r="A123" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="B123" s="80" t="s">
+      <c r="B123" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="C123" s="81"/>
-      <c r="D123" s="81"/>
-      <c r="E123" s="82"/>
+      <c r="C123" s="78"/>
+      <c r="D123" s="78"/>
+      <c r="E123" s="79"/>
       <c r="F123" s="54" t="s">
         <v>28</v>
       </c>
@@ -7923,14 +7923,14 @@
       <c r="A124" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B124" s="77" t="s">
+      <c r="B124" s="86" t="s">
         <v>117</v>
       </c>
-      <c r="C124" s="78"/>
-      <c r="D124" s="78"/>
-      <c r="E124" s="78"/>
-      <c r="F124" s="78"/>
-      <c r="G124" s="79"/>
+      <c r="C124" s="87"/>
+      <c r="D124" s="87"/>
+      <c r="E124" s="87"/>
+      <c r="F124" s="87"/>
+      <c r="G124" s="88"/>
     </row>
     <row r="125" spans="1:7" s="52" customFormat="1">
       <c r="A125" s="57" t="s">
@@ -8057,12 +8057,12 @@
       <c r="A132" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="B132" s="80" t="s">
+      <c r="B132" s="77" t="s">
         <v>133</v>
       </c>
-      <c r="C132" s="81"/>
-      <c r="D132" s="81"/>
-      <c r="E132" s="82"/>
+      <c r="C132" s="78"/>
+      <c r="D132" s="78"/>
+      <c r="E132" s="79"/>
       <c r="F132" s="54" t="s">
         <v>28</v>
       </c>
@@ -8075,14 +8075,14 @@
       <c r="A133" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B133" s="77" t="s">
+      <c r="B133" s="86" t="s">
         <v>143</v>
       </c>
-      <c r="C133" s="78"/>
-      <c r="D133" s="78"/>
-      <c r="E133" s="78"/>
-      <c r="F133" s="78"/>
-      <c r="G133" s="79"/>
+      <c r="C133" s="87"/>
+      <c r="D133" s="87"/>
+      <c r="E133" s="87"/>
+      <c r="F133" s="87"/>
+      <c r="G133" s="88"/>
     </row>
     <row r="134" spans="1:7" s="52" customFormat="1">
       <c r="A134" s="57" t="s">
@@ -8156,12 +8156,12 @@
       <c r="A138" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="B138" s="80" t="s">
+      <c r="B138" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="C138" s="81"/>
-      <c r="D138" s="81"/>
-      <c r="E138" s="82"/>
+      <c r="C138" s="78"/>
+      <c r="D138" s="78"/>
+      <c r="E138" s="79"/>
       <c r="F138" s="54" t="s">
         <v>28</v>
       </c>
@@ -8174,14 +8174,14 @@
       <c r="A139" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B139" s="93" t="s">
+      <c r="B139" s="80" t="s">
         <v>148</v>
       </c>
-      <c r="C139" s="94"/>
-      <c r="D139" s="94"/>
-      <c r="E139" s="94"/>
-      <c r="F139" s="94"/>
-      <c r="G139" s="95"/>
+      <c r="C139" s="81"/>
+      <c r="D139" s="81"/>
+      <c r="E139" s="81"/>
+      <c r="F139" s="81"/>
+      <c r="G139" s="82"/>
     </row>
     <row r="140" spans="1:7" s="52" customFormat="1">
       <c r="A140" s="57" t="s">
@@ -8274,12 +8274,12 @@
       <c r="A145" s="53" t="s">
         <v>154</v>
       </c>
-      <c r="B145" s="80" t="s">
+      <c r="B145" s="77" t="s">
         <v>128</v>
       </c>
-      <c r="C145" s="81"/>
-      <c r="D145" s="81"/>
-      <c r="E145" s="82"/>
+      <c r="C145" s="78"/>
+      <c r="D145" s="78"/>
+      <c r="E145" s="79"/>
       <c r="F145" s="54" t="s">
         <v>28</v>
       </c>
@@ -8292,14 +8292,14 @@
       <c r="A146" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B146" s="93" t="s">
+      <c r="B146" s="80" t="s">
         <v>155</v>
       </c>
-      <c r="C146" s="94"/>
-      <c r="D146" s="94"/>
-      <c r="E146" s="94"/>
-      <c r="F146" s="94"/>
-      <c r="G146" s="95"/>
+      <c r="C146" s="81"/>
+      <c r="D146" s="81"/>
+      <c r="E146" s="81"/>
+      <c r="F146" s="81"/>
+      <c r="G146" s="82"/>
     </row>
     <row r="147" spans="1:7" s="52" customFormat="1">
       <c r="A147" s="57" t="s">
@@ -8445,12 +8445,12 @@
       <c r="A155" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="B155" s="80" t="s">
+      <c r="B155" s="77" t="s">
         <v>166</v>
       </c>
-      <c r="C155" s="81"/>
-      <c r="D155" s="81"/>
-      <c r="E155" s="82"/>
+      <c r="C155" s="78"/>
+      <c r="D155" s="78"/>
+      <c r="E155" s="79"/>
       <c r="F155" s="54" t="s">
         <v>28</v>
       </c>
@@ -8463,14 +8463,14 @@
       <c r="A156" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B156" s="93" t="s">
+      <c r="B156" s="80" t="s">
         <v>155</v>
       </c>
-      <c r="C156" s="94"/>
-      <c r="D156" s="94"/>
-      <c r="E156" s="94"/>
-      <c r="F156" s="94"/>
-      <c r="G156" s="95"/>
+      <c r="C156" s="81"/>
+      <c r="D156" s="81"/>
+      <c r="E156" s="81"/>
+      <c r="F156" s="81"/>
+      <c r="G156" s="82"/>
     </row>
     <row r="157" spans="1:7" s="52" customFormat="1">
       <c r="A157" s="57" t="s">
@@ -15414,51 +15414,6 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="B155:E155"/>
-    <mergeCell ref="B156:G156"/>
-    <mergeCell ref="B161:G161"/>
-    <mergeCell ref="B139:G139"/>
-    <mergeCell ref="B145:E145"/>
-    <mergeCell ref="B146:G146"/>
-    <mergeCell ref="B144:G144"/>
-    <mergeCell ref="B154:G154"/>
-    <mergeCell ref="B123:E123"/>
-    <mergeCell ref="B124:G124"/>
-    <mergeCell ref="B132:E132"/>
-    <mergeCell ref="B133:G133"/>
-    <mergeCell ref="B138:E138"/>
-    <mergeCell ref="B131:G131"/>
-    <mergeCell ref="B137:G137"/>
-    <mergeCell ref="B114:E114"/>
-    <mergeCell ref="B115:G115"/>
-    <mergeCell ref="B122:G122"/>
-    <mergeCell ref="B98:G98"/>
-    <mergeCell ref="B104:G104"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B73:G73"/>
-    <mergeCell ref="B79:G79"/>
-    <mergeCell ref="B96:G96"/>
-    <mergeCell ref="B97:E97"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="B81:G81"/>
-    <mergeCell ref="B88:G88"/>
-    <mergeCell ref="B89:E89"/>
-    <mergeCell ref="B90:G90"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="B64:G64"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="B66:G66"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="B18:E18"/>
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="B105:E105"/>
     <mergeCell ref="B106:G106"/>
@@ -15475,6 +15430,51 @@
     <mergeCell ref="B42:G42"/>
     <mergeCell ref="B43:E43"/>
     <mergeCell ref="B44:G44"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="B96:G96"/>
+    <mergeCell ref="B97:E97"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="B81:G81"/>
+    <mergeCell ref="B88:G88"/>
+    <mergeCell ref="B89:E89"/>
+    <mergeCell ref="B90:G90"/>
+    <mergeCell ref="B114:E114"/>
+    <mergeCell ref="B115:G115"/>
+    <mergeCell ref="B122:G122"/>
+    <mergeCell ref="B98:G98"/>
+    <mergeCell ref="B104:G104"/>
+    <mergeCell ref="B123:E123"/>
+    <mergeCell ref="B124:G124"/>
+    <mergeCell ref="B132:E132"/>
+    <mergeCell ref="B133:G133"/>
+    <mergeCell ref="B138:E138"/>
+    <mergeCell ref="B131:G131"/>
+    <mergeCell ref="B137:G137"/>
+    <mergeCell ref="B155:E155"/>
+    <mergeCell ref="B156:G156"/>
+    <mergeCell ref="B161:G161"/>
+    <mergeCell ref="B139:G139"/>
+    <mergeCell ref="B145:E145"/>
+    <mergeCell ref="B146:G146"/>
+    <mergeCell ref="B144:G144"/>
+    <mergeCell ref="B154:G154"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" showErrorMessage="1" promptTitle="Valid values include:" prompt="_x000a_" sqref="F463:F465 F39:F41 F470:F476 F689:F691 F679:F684 F481:F490 F495:F498 F503:F508 F513:F521 F526:F535 F540:F550 F555:F565 F581:F587 F609:F611 F570:F576 F592:F598 F603:F604 F616:F622 F627:F633 F649:F651 F638:F644 F656:F659 F664:F666 F671:F674 F26:F27 F61:F63 F21 F46:F48 F32:F34 F53:F56 F68:F70 F75:F78 F83:F87 F92:F95 F100:F103 F108:F112 F117:F121 F148:F153 F126:F130 F135:F136 F141:F143 F158:F160" xr:uid="{00000000-0002-0000-0200-000000000000}">
